--- a/01 Comparatiu mostra 2022 2023.xlsx
+++ b/01 Comparatiu mostra 2022 2023.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Becker\Desktop\00 Lanzamiento Catchment\SERVER CATCHMENT\Proyectos2023\P3007\Informe Juny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589657C-5978-4FA7-85B4-4889143B5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B70B0-9228-4D54-9633-F0875197D942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentar Municipis" sheetId="14" r:id="rId1"/>
     <sheet name="Presentar Provincies" sheetId="15" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Presentar Provincies'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -645,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,9 +685,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,9 +1064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BDE2A4-34B3-4B64-BC2E-92071E00E24D}">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:Z124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,127 +1076,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="42" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="42" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="42" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39">
         <v>2021</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>2022</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>2023</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>2021</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>2022</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>2023</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="39">
         <v>2021</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <v>2022</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="39">
         <v>2023</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>2021</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="39">
         <v>2022</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="39">
         <v>2023</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="39">
         <v>2021</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="39">
         <v>2022</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="39">
         <v>2023</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10">
         <v>2</v>
@@ -1204,41 +1204,41 @@
       <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25">
         <v>22</v>
       </c>
       <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>22</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30">
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29">
         <v>62.839090909090899</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25">
         <v>201931.81818181818</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36">
         <v>3285.2642258360447</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1304,13 +1304,13 @@
       <c r="U4" s="8">
         <v>0.16640116640116642</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="14">
         <v>824.92929262439645</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>1374.3202974826179</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="14">
         <v>1339.8373983739834</v>
       </c>
       <c r="Y4" s="8">
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>7</v>
       </c>
       <c r="C5" s="10">
@@ -1336,10 +1336,10 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>-1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>52</v>
       </c>
       <c r="H5" s="10">
@@ -1351,10 +1351,10 @@
       <c r="J5" s="10">
         <v>24</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>-4</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>85.476629244629265</v>
       </c>
       <c r="M5" s="1">
@@ -1366,10 +1366,10 @@
       <c r="O5" s="3">
         <v>-4.4316064743940467E-2</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="21">
         <v>1.4348106178296731E-2</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>296437.69230769231</v>
       </c>
       <c r="R5" s="10">
@@ -1381,10 +1381,10 @@
       <c r="T5" s="3">
         <v>-2.7377929369404173E-2</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <v>1.4320771530596419E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="22">
         <v>3653.64417825191</v>
       </c>
       <c r="W5" s="2">
@@ -1396,7 +1396,7 @@
       <c r="Y5" s="3">
         <v>-2.3867145621075499E-2</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="21">
         <v>5.6025393601922223E-4</v>
       </c>
     </row>
@@ -1440,19 +1440,19 @@
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15">
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14">
         <v>2935.8919687364855</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>38</v>
       </c>
       <c r="C7" s="10">
@@ -1464,10 +1464,10 @@
       <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>-12</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>300</v>
       </c>
       <c r="H7" s="10">
@@ -1479,10 +1479,10 @@
       <c r="J7" s="10">
         <v>-42</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>-48</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>75.672195571601605</v>
       </c>
       <c r="M7" s="1">
@@ -1494,10 +1494,10 @@
       <c r="O7" s="3">
         <v>4.9230204684244452E-2</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="21">
         <v>-9.8915448011972686E-3</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <v>323239.75333333336</v>
       </c>
       <c r="R7" s="10">
@@ -1509,10 +1509,10 @@
       <c r="T7" s="3">
         <v>-6.2090538139539225E-3</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <v>-1.4943837384860895E-2</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="22">
         <v>4305.8277115666133</v>
       </c>
       <c r="W7" s="2">
@@ -1524,7 +1524,7 @@
       <c r="Y7" s="3">
         <v>-4.8817449823258731E-2</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="21">
         <v>-8.8224299560172772E-3</v>
       </c>
     </row>
@@ -1572,21 +1572,21 @@
         <v>-1</v>
       </c>
       <c r="U8" s="8"/>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <v>478.07645500751659</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
       <c r="Y8" s="8">
         <v>-1</v>
       </c>
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
       <c r="C9" s="10"/>
@@ -1594,10 +1594,10 @@
       <c r="E9" s="10">
         <v>-1</v>
       </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
         <v>2</v>
       </c>
       <c r="H9" s="10"/>
@@ -1605,10 +1605,10 @@
       <c r="J9" s="10">
         <v>-2</v>
       </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
         <v>127.95507874015749</v>
       </c>
       <c r="M9" s="1"/>
@@ -1616,8 +1616,8 @@
       <c r="O9" s="3">
         <v>-1</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="19">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="18">
         <v>230000</v>
       </c>
       <c r="R9" s="10"/>
@@ -1625,8 +1625,8 @@
       <c r="T9" s="3">
         <v>-1</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="23">
+      <c r="U9" s="21"/>
+      <c r="V9" s="22">
         <v>1820.2889265555179</v>
       </c>
       <c r="W9" s="2"/>
@@ -1634,7 +1634,7 @@
       <c r="Y9" s="3">
         <v>-1</v>
       </c>
-      <c r="Z9" s="22"/>
+      <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1676,19 +1676,19 @@
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14">
         <v>3267.7390496248995</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>236</v>
       </c>
       <c r="C11" s="10">
@@ -1700,10 +1700,10 @@
       <c r="E11" s="10">
         <v>-37</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>-29</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>1271</v>
       </c>
       <c r="H11" s="10">
@@ -1715,25 +1715,25 @@
       <c r="J11" s="10">
         <v>119</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>-27</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>82.121623812533045</v>
       </c>
       <c r="M11" s="1">
         <v>80.85573873798063</v>
       </c>
       <c r="N11" s="1">
-        <v>79.312991710589301</v>
+        <v>79.461675637688856</v>
       </c>
       <c r="O11" s="3">
         <v>-1.5414759423683254E-2</v>
       </c>
-      <c r="P11" s="22">
-        <v>-1.9080241569379774E-2</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="P11" s="21">
+        <v>-1.7241362481509755E-2</v>
+      </c>
+      <c r="Q11" s="18">
         <v>607542.66640440596</v>
       </c>
       <c r="R11" s="10">
@@ -1745,23 +1745,23 @@
       <c r="T11" s="3">
         <v>3.788472735268314E-2</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="21">
         <v>-1.5960324611776256E-2</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="22">
         <v>7158.6854764602585</v>
       </c>
       <c r="W11" s="2">
         <v>7486.9659464019105</v>
       </c>
       <c r="X11" s="2">
-        <v>7487.8982503856505</v>
+        <v>7464.7469148886103</v>
       </c>
       <c r="Y11" s="3">
         <v>4.5857646773437545E-2</v>
       </c>
-      <c r="Z11" s="22">
-        <v>1.2452360414274779E-4</v>
+      <c r="Z11" s="21">
+        <v>-2.9676950145577038E-3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1808,21 +1808,21 @@
         <v>-1</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="15">
+      <c r="V12" s="14">
         <v>1280.4786030103171</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="8">
         <v>-1</v>
       </c>
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>4</v>
       </c>
       <c r="C13" s="10">
@@ -1834,10 +1834,10 @@
       <c r="E13" s="10">
         <v>-3</v>
       </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
         <v>8</v>
       </c>
       <c r="H13" s="10">
@@ -1849,10 +1849,10 @@
       <c r="J13" s="10">
         <v>-3</v>
       </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
         <v>100.5294940990991</v>
       </c>
       <c r="M13" s="1">
@@ -1864,10 +1864,10 @@
       <c r="O13" s="3">
         <v>0.70952487424210331</v>
       </c>
-      <c r="P13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="P13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
         <v>129837.5</v>
       </c>
       <c r="R13" s="10">
@@ -1879,10 +1879,10 @@
       <c r="T13" s="3">
         <v>1.0410128044671223</v>
       </c>
-      <c r="U13" s="22">
-        <v>0</v>
-      </c>
-      <c r="V13" s="23">
+      <c r="U13" s="21">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
         <v>1252.6331550810769</v>
       </c>
       <c r="W13" s="2">
@@ -1894,7 +1894,7 @@
       <c r="Y13" s="3">
         <v>0.2309858194077038</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1962,13 +1962,13 @@
       <c r="U14" s="8">
         <v>-0.12352905310651793</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>2990.3009724108351</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>3005.7887141041115</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="14">
         <v>3015.7610116246474</v>
       </c>
       <c r="Y14" s="8">
@@ -1979,10 +1979,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
       <c r="C15" s="10">
@@ -1994,10 +1994,10 @@
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
         <v>148</v>
       </c>
       <c r="H15" s="10">
@@ -2009,10 +2009,10 @@
       <c r="J15" s="10">
         <v>9</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>-14</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>71.064577782506845</v>
       </c>
       <c r="M15" s="1">
@@ -2024,10 +2024,10 @@
       <c r="O15" s="3">
         <v>-2.0455640123095139E-2</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="21">
         <v>8.4438067599811283E-3</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="18">
         <v>201830.74324324325</v>
       </c>
       <c r="R15" s="10">
@@ -2039,10 +2039,10 @@
       <c r="T15" s="3">
         <v>0.12180141191861373</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="21">
         <v>-2.1218750866822431E-2</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="22">
         <v>2864.3061618334455</v>
       </c>
       <c r="W15" s="2">
@@ -2054,7 +2054,7 @@
       <c r="Y15" s="3">
         <v>0.1262538454829519</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="21">
         <v>-3.1707746624860374E-2</v>
       </c>
     </row>
@@ -2098,19 +2098,19 @@
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14">
         <v>3717.2437213751909</v>
       </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>7</v>
       </c>
       <c r="C17" s="10">
@@ -2122,10 +2122,10 @@
       <c r="E17" s="10">
         <v>-4</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>-1</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>38</v>
       </c>
       <c r="H17" s="10">
@@ -2137,10 +2137,10 @@
       <c r="J17" s="10">
         <v>-8</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <v>-12</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>87.664736842105285</v>
       </c>
       <c r="M17" s="1">
@@ -2152,10 +2152,10 @@
       <c r="O17" s="3">
         <v>-0.19385715915299356</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="21">
         <v>-4.3823532972439544E-2</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <v>283934.21052631579</v>
       </c>
       <c r="R17" s="10">
@@ -2167,10 +2167,10 @@
       <c r="T17" s="3">
         <v>-8.6055887668566658E-2</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="21">
         <v>-0.12866623849282804</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="22">
         <v>3299.8167772509905</v>
       </c>
       <c r="W17" s="2">
@@ -2182,7 +2182,7 @@
       <c r="Y17" s="3">
         <v>0.11718347801788841</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="21">
         <v>-7.926252947684688E-2</v>
       </c>
     </row>
@@ -2242,13 +2242,13 @@
       <c r="U18" s="8">
         <v>-1</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="14">
         <v>3818.318269882403</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="14">
         <v>7459.0518038553419</v>
       </c>
-      <c r="X18" s="15"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="8">
         <v>0.95349137411876006</v>
       </c>
@@ -2257,10 +2257,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
         <v>10</v>
@@ -2268,10 +2268,10 @@
       <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>10</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10">
         <v>100</v>
@@ -2279,30 +2279,30 @@
       <c r="J19" s="10">
         <v>0</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>100</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <v>69.935593867782615</v>
+        <v>70.08937828404261</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="18"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10">
         <v>339480</v>
       </c>
       <c r="T19" s="3"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="23"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2">
-        <v>4785.7721976629755</v>
+        <v>4771.597814183584</v>
       </c>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="22"/>
+      <c r="Z19" s="21"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -2368,13 +2368,13 @@
       <c r="U20" s="8">
         <v>0.17650362691297233</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="14">
         <v>3161.0119052534619</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="14">
         <v>3982.5270524430985</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="14">
         <v>4182.512078293712</v>
       </c>
       <c r="Y20" s="8">
@@ -2385,10 +2385,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
         <v>3</v>
@@ -2396,10 +2396,10 @@
       <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>3</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10">
         <v>13</v>
@@ -2407,30 +2407,30 @@
       <c r="J21" s="10">
         <v>0</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <v>13</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
         <v>110.80534329946153</v>
       </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10">
         <v>383353.84615384613</v>
       </c>
       <c r="T21" s="3"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="23"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2">
         <v>3491.521748402612</v>
       </c>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="22"/>
+      <c r="Z21" s="21"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -2496,13 +2496,13 @@
       <c r="U22" s="8">
         <v>2.0062262193012933E-2</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="14">
         <v>2421.5452228361964</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="14">
         <v>4055.8082399363398</v>
       </c>
-      <c r="X22" s="15">
+      <c r="X22" s="14">
         <v>3510.4061553074748</v>
       </c>
       <c r="Y22" s="8">
@@ -2513,10 +2513,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>2</v>
       </c>
       <c r="C23" s="10">
@@ -2528,10 +2528,10 @@
       <c r="E23" s="10">
         <v>-1</v>
       </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
         <v>7</v>
       </c>
       <c r="H23" s="10">
@@ -2543,10 +2543,10 @@
       <c r="J23" s="10">
         <v>2</v>
       </c>
-      <c r="K23" s="20">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
         <v>90.453342857142857</v>
       </c>
       <c r="M23" s="1">
@@ -2558,10 +2558,10 @@
       <c r="O23" s="3">
         <v>0.70996337775958906</v>
       </c>
-      <c r="P23" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="19">
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18">
         <v>110150</v>
       </c>
       <c r="R23" s="10">
@@ -2573,10 +2573,10 @@
       <c r="T23" s="3">
         <v>1.9555656428103092</v>
       </c>
-      <c r="U23" s="22">
-        <v>0</v>
-      </c>
-      <c r="V23" s="23">
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="22">
         <v>1219.4774988057864</v>
       </c>
       <c r="W23" s="2">
@@ -2588,7 +2588,7 @@
       <c r="Y23" s="3">
         <v>0.7259964128204035</v>
       </c>
-      <c r="Z23" s="22">
+      <c r="Z23" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2632,19 +2632,19 @@
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15">
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14">
         <v>3248.3292117383166</v>
       </c>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10">
         <v>1</v>
@@ -2652,10 +2652,10 @@
       <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>1</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10">
         <v>3</v>
@@ -2663,30 +2663,30 @@
       <c r="J25" s="10">
         <v>0</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <v>3</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
         <v>84.316666666666663</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10">
         <v>240000</v>
       </c>
       <c r="T25" s="3"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2">
         <v>2846.7359602516494</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="22"/>
+      <c r="Z25" s="21"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2752,13 +2752,13 @@
       <c r="U26" s="8">
         <v>-1.5705010869977636E-3</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="14">
         <v>4587.1263474491743</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="14">
         <v>4869.5103257930923</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="14">
         <v>5605.1943855214995</v>
       </c>
       <c r="Y26" s="8">
@@ -2769,10 +2769,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>14</v>
       </c>
       <c r="C27" s="10">
@@ -2784,10 +2784,10 @@
       <c r="E27" s="10">
         <v>1</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>-1</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>78</v>
       </c>
       <c r="H27" s="10">
@@ -2799,25 +2799,25 @@
       <c r="J27" s="10">
         <v>146</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>-19</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <v>93.569488692538599</v>
       </c>
       <c r="M27" s="1">
         <v>81.988507228083151</v>
       </c>
       <c r="N27" s="1">
-        <v>83.773198536585426</v>
+        <v>83.851735121951307</v>
       </c>
       <c r="O27" s="3">
         <v>-0.1237687800401429</v>
       </c>
-      <c r="P27" s="22">
-        <v>2.1767579003938404E-2</v>
-      </c>
-      <c r="Q27" s="19">
+      <c r="P27" s="21">
+        <v>2.272547649495384E-2</v>
+      </c>
+      <c r="Q27" s="18">
         <v>445048.71794871794</v>
       </c>
       <c r="R27" s="10">
@@ -2829,23 +2829,23 @@
       <c r="T27" s="3">
         <v>6.1821955533534242E-2</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="21">
         <v>3.7147622104444847E-2</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="22">
         <v>4735.5221129953097</v>
       </c>
       <c r="W27" s="2">
         <v>5793.1816131764699</v>
       </c>
       <c r="X27" s="2">
-        <v>5928.5027386785096</v>
+        <v>5911.3749576304172</v>
       </c>
       <c r="Y27" s="3">
         <v>0.22334591095640982</v>
       </c>
-      <c r="Z27" s="22">
-        <v>2.335868863393728E-2</v>
+      <c r="Z27" s="21">
+        <v>2.0402147273463508E-2</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
       <c r="U28" s="8">
         <v>0.38628841585611146</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="14">
         <v>3603.8229623272832</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="14">
         <v>4287.0662827891729</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="14">
         <v>4900.1936235077746</v>
       </c>
       <c r="Y28" s="8">
@@ -2929,10 +2929,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>1</v>
       </c>
       <c r="C29" s="10"/>
@@ -2940,10 +2940,10 @@
       <c r="E29" s="10">
         <v>-1</v>
       </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
         <v>1</v>
       </c>
       <c r="H29" s="10"/>
@@ -2951,10 +2951,10 @@
       <c r="J29" s="10">
         <v>-1</v>
       </c>
-      <c r="K29" s="20">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="20">
         <v>67.784000000000006</v>
       </c>
       <c r="M29" s="1"/>
@@ -2962,8 +2962,8 @@
       <c r="O29" s="3">
         <v>-1</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="19">
+      <c r="P29" s="21"/>
+      <c r="Q29" s="18">
         <v>53700</v>
       </c>
       <c r="R29" s="10"/>
@@ -2971,8 +2971,8 @@
       <c r="T29" s="3">
         <v>-1</v>
       </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="23">
+      <c r="U29" s="21"/>
+      <c r="V29" s="22">
         <v>792.2223533577245</v>
       </c>
       <c r="W29" s="2"/>
@@ -2980,7 +2980,7 @@
       <c r="Y29" s="3">
         <v>-1</v>
       </c>
-      <c r="Z29" s="22"/>
+      <c r="Z29" s="21"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -3046,13 +3046,13 @@
       <c r="U30" s="8">
         <v>-2.4990022772197924E-2</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="14">
         <v>4111.8552764849255</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="14">
         <v>4557.1095132227601</v>
       </c>
-      <c r="X30" s="15">
+      <c r="X30" s="14">
         <v>4575.0013997923716</v>
       </c>
       <c r="Y30" s="8">
@@ -3063,10 +3063,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
         <v>5</v>
@@ -3074,10 +3074,10 @@
       <c r="E31" s="10">
         <v>0</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>5</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10">
         <v>67</v>
@@ -3085,30 +3085,30 @@
       <c r="J31" s="10">
         <v>0</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>67</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="20"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <v>67.39984128449251</v>
       </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="19"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="18"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10">
         <v>273068.43283582089</v>
       </c>
       <c r="T31" s="3"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="23"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2">
         <v>4149.079559058905</v>
       </c>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="22"/>
+      <c r="Z31" s="21"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -3174,13 +3174,13 @@
       <c r="U32" s="8">
         <v>-7.4102284948548008E-2</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="14">
         <v>1834.8267696674677</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="14">
         <v>2859.8519326165015</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="14">
         <v>2999.62803491148</v>
       </c>
       <c r="Y32" s="8">
@@ -3191,10 +3191,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>4</v>
       </c>
       <c r="C33" s="10">
@@ -3206,10 +3206,10 @@
       <c r="E33" s="10">
         <v>-3</v>
       </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
         <v>11</v>
       </c>
       <c r="H33" s="10">
@@ -3221,10 +3221,10 @@
       <c r="J33" s="10">
         <v>-3</v>
       </c>
-      <c r="K33" s="20">
-        <v>0</v>
-      </c>
-      <c r="L33" s="21">
+      <c r="K33" s="19">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
         <v>66.207442260442249</v>
       </c>
       <c r="M33" s="1">
@@ -3236,10 +3236,10 @@
       <c r="O33" s="3">
         <v>2.3478217651771445E-2</v>
       </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19">
+      <c r="P33" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="18">
         <v>46290.909090909088</v>
       </c>
       <c r="R33" s="10">
@@ -3251,10 +3251,10 @@
       <c r="T33" s="3">
         <v>0.47383150039277305</v>
       </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="23">
+      <c r="U33" s="21">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
         <v>709.30383378283852</v>
       </c>
       <c r="W33" s="2">
@@ -3266,7 +3266,7 @@
       <c r="Y33" s="3">
         <v>0.45142246522531354</v>
       </c>
-      <c r="Z33" s="22">
+      <c r="Z33" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3334,13 +3334,13 @@
       <c r="U34" s="8">
         <v>7.7827756201474307E-2</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="14">
         <v>4807.9210133480383</v>
       </c>
-      <c r="W34" s="15">
+      <c r="W34" s="14">
         <v>3793.8934011959741</v>
       </c>
-      <c r="X34" s="15">
+      <c r="X34" s="14">
         <v>4131.1369773056231</v>
       </c>
       <c r="Y34" s="8">
@@ -3351,10 +3351,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>1</v>
       </c>
       <c r="C35" s="10">
@@ -3366,10 +3366,10 @@
       <c r="E35" s="10">
         <v>3</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <v>2</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>7</v>
       </c>
       <c r="H35" s="10">
@@ -3381,10 +3381,10 @@
       <c r="J35" s="10">
         <v>13</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>22</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <v>76.242857142857133</v>
       </c>
       <c r="M35" s="1">
@@ -3396,10 +3396,10 @@
       <c r="O35" s="3">
         <v>3.4066572981075544E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="21">
         <v>-3.8758993052606439E-2</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="18">
         <v>174342.85714285713</v>
       </c>
       <c r="R35" s="10">
@@ -3411,10 +3411,10 @@
       <c r="T35" s="3">
         <v>0.538692232055064</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="21">
         <v>-0.11411459387303716</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V35" s="22">
         <v>2304.4340909721941</v>
       </c>
       <c r="W35" s="2">
@@ -3426,7 +3426,7 @@
       <c r="Y35" s="3">
         <v>0.50329270706546358</v>
       </c>
-      <c r="Z35" s="22">
+      <c r="Z35" s="21">
         <v>-8.6886916556675797E-2</v>
       </c>
     </row>
@@ -3494,13 +3494,13 @@
       <c r="U36" s="8">
         <v>-0.28999009695110389</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="14">
         <v>8753.4013380760061</v>
       </c>
-      <c r="W36" s="15">
+      <c r="W36" s="14">
         <v>7526.7102040466261</v>
       </c>
-      <c r="X36" s="15">
+      <c r="X36" s="14">
         <v>6432.5342972624712</v>
       </c>
       <c r="Y36" s="8">
@@ -3511,10 +3511,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>7</v>
       </c>
       <c r="C37" s="10">
@@ -3526,10 +3526,10 @@
       <c r="E37" s="10">
         <v>-4</v>
       </c>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="19">
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
         <v>30</v>
       </c>
       <c r="H37" s="10">
@@ -3541,10 +3541,10 @@
       <c r="J37" s="10">
         <v>9</v>
       </c>
-      <c r="K37" s="20">
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
+      <c r="K37" s="19">
+        <v>0</v>
+      </c>
+      <c r="L37" s="20">
         <v>108.08173033033034</v>
       </c>
       <c r="M37" s="1">
@@ -3556,10 +3556,10 @@
       <c r="O37" s="3">
         <v>-0.23626886752183998</v>
       </c>
-      <c r="P37" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="19">
+      <c r="P37" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="18">
         <v>201800</v>
       </c>
       <c r="R37" s="10">
@@ -3571,10 +3571,10 @@
       <c r="T37" s="3">
         <v>-0.35672536911387259</v>
       </c>
-      <c r="U37" s="22">
-        <v>0</v>
-      </c>
-      <c r="V37" s="23">
+      <c r="U37" s="21">
+        <v>0</v>
+      </c>
+      <c r="V37" s="22">
         <v>1902.045743011555</v>
       </c>
       <c r="W37" s="2">
@@ -3586,7 +3586,7 @@
       <c r="Y37" s="3">
         <v>-0.17372390496469498</v>
       </c>
-      <c r="Z37" s="22">
+      <c r="Z37" s="21">
         <v>-1.4467518170713607E-16</v>
       </c>
     </row>
@@ -3630,19 +3630,19 @@
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15">
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14">
         <v>4017.1967396254677</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
         <v>3</v>
@@ -3650,10 +3650,10 @@
       <c r="E39" s="10">
         <v>0</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="19">
         <v>3</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10">
         <v>10</v>
@@ -3661,30 +3661,30 @@
       <c r="J39" s="10">
         <v>0</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="19">
         <v>10</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
         <v>89.682000839099999</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="19"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10">
         <v>317290</v>
       </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="23"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2">
         <v>3553.8377929393077</v>
       </c>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="22"/>
+      <c r="Z39" s="21"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -3750,13 +3750,13 @@
       <c r="U40" s="8">
         <v>1.2163271883512541E-2</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="14">
         <v>4299.6783723489352</v>
       </c>
-      <c r="W40" s="15">
+      <c r="W40" s="14">
         <v>4065.0579496540531</v>
       </c>
-      <c r="X40" s="15">
+      <c r="X40" s="14">
         <v>4134.4461311245132</v>
       </c>
       <c r="Y40" s="8">
@@ -3767,10 +3767,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="18">
         <v>17</v>
       </c>
       <c r="C41" s="10">
@@ -3782,10 +3782,10 @@
       <c r="E41" s="10">
         <v>6</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="19">
         <v>-4</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>56</v>
       </c>
       <c r="H41" s="10">
@@ -3797,10 +3797,10 @@
       <c r="J41" s="10">
         <v>204</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="19">
         <v>-24</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="20">
         <v>82.980774346618844</v>
       </c>
       <c r="M41" s="1">
@@ -3812,10 +3812,10 @@
       <c r="O41" s="3">
         <v>4.4687707184756502E-2</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="21">
         <v>1.967062806768044E-2</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="18">
         <v>313607.16071428574</v>
       </c>
       <c r="R41" s="10">
@@ -3827,10 +3827,10 @@
       <c r="T41" s="3">
         <v>1.2598910393130972E-2</v>
       </c>
-      <c r="U41" s="22">
+      <c r="U41" s="21">
         <v>0.1049667023607869</v>
       </c>
-      <c r="V41" s="23">
+      <c r="V41" s="22">
         <v>3768.5892553329809</v>
       </c>
       <c r="W41" s="2">
@@ -3842,7 +3842,7 @@
       <c r="Y41" s="3">
         <v>-3.7622825040818139E-2</v>
       </c>
-      <c r="Z41" s="22">
+      <c r="Z41" s="21">
         <v>9.8499738420655916E-2</v>
       </c>
     </row>
@@ -3910,13 +3910,13 @@
       <c r="U42" s="8">
         <v>1.1713836153467227E-2</v>
       </c>
-      <c r="V42" s="15">
+      <c r="V42" s="14">
         <v>3229.3862603315515</v>
       </c>
-      <c r="W42" s="15">
+      <c r="W42" s="14">
         <v>3543.539244613416</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="14">
         <v>3617.6542789675832</v>
       </c>
       <c r="Y42" s="8">
@@ -3927,10 +3927,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <v>49</v>
       </c>
       <c r="C43" s="10">
@@ -3942,10 +3942,10 @@
       <c r="E43" s="10">
         <v>-5</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="19">
         <v>-6</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>517</v>
       </c>
       <c r="H43" s="10">
@@ -3957,25 +3957,25 @@
       <c r="J43" s="10">
         <v>-135</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>-56</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="20">
         <v>77.630341842763116</v>
       </c>
       <c r="M43" s="1">
         <v>76.541947818825278</v>
       </c>
       <c r="N43" s="1">
-        <v>76.574228356270368</v>
+        <v>76.619780503509631</v>
       </c>
       <c r="O43" s="3">
         <v>-1.402021423713852E-2</v>
       </c>
-      <c r="P43" s="22">
-        <v>4.217365557706659E-4</v>
-      </c>
-      <c r="Q43" s="19">
+      <c r="P43" s="21">
+        <v>1.0168631306402415E-3</v>
+      </c>
+      <c r="Q43" s="18">
         <v>345441.09477756289</v>
       </c>
       <c r="R43" s="10">
@@ -3987,23 +3987,23 @@
       <c r="T43" s="3">
         <v>-1.0128761869904995E-2</v>
       </c>
-      <c r="U43" s="22">
+      <c r="U43" s="21">
         <v>-8.1560043435142462E-3</v>
       </c>
-      <c r="V43" s="23">
+      <c r="V43" s="22">
         <v>4479.568695518904</v>
       </c>
       <c r="W43" s="2">
         <v>4542.1392518248849</v>
       </c>
       <c r="X43" s="2">
-        <v>4505.7086797187894</v>
+        <v>4498.7272216161491</v>
       </c>
       <c r="Y43" s="3">
         <v>1.3967986777069154E-2</v>
       </c>
-      <c r="Z43" s="22">
-        <v>-8.0205757873801128E-3</v>
+      <c r="Z43" s="21">
+        <v>-9.5576176338702662E-3</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4050,21 +4050,21 @@
         <v>-1</v>
       </c>
       <c r="U44" s="8"/>
-      <c r="V44" s="15">
+      <c r="V44" s="14">
         <v>1956.313831013498</v>
       </c>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
       <c r="Y44" s="8">
         <v>-1</v>
       </c>
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <v>23</v>
       </c>
       <c r="C45" s="10">
@@ -4076,10 +4076,10 @@
       <c r="E45" s="10">
         <v>-5</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="19">
         <v>-3</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="18">
         <v>160</v>
       </c>
       <c r="H45" s="10">
@@ -4091,25 +4091,25 @@
       <c r="J45" s="10">
         <v>76</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <v>-83</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>87.482742606936398</v>
       </c>
       <c r="M45" s="1">
         <v>82.107896823645405</v>
       </c>
       <c r="N45" s="1">
-        <v>82.081331048237388</v>
+        <v>82.308852687523739</v>
       </c>
       <c r="O45" s="3">
         <v>-6.1438926388492403E-2</v>
       </c>
-      <c r="P45" s="22">
-        <v>-3.2354714267101079E-4</v>
-      </c>
-      <c r="Q45" s="19">
+      <c r="P45" s="21">
+        <v>2.447460861285433E-3</v>
+      </c>
+      <c r="Q45" s="18">
         <v>205835.43124999999</v>
       </c>
       <c r="R45" s="10">
@@ -4121,23 +4121,23 @@
       <c r="T45" s="3">
         <v>-3.8914105022349245E-2</v>
       </c>
-      <c r="U45" s="22">
+      <c r="U45" s="21">
         <v>5.2067389699580842E-3</v>
       </c>
-      <c r="V45" s="23">
+      <c r="V45" s="22">
         <v>2318.5734800319524</v>
       </c>
       <c r="W45" s="2">
         <v>2341.2499029335754</v>
       </c>
       <c r="X45" s="2">
-        <v>2304.9795434256189</v>
+        <v>2291.0878534162812</v>
       </c>
       <c r="Y45" s="3">
         <v>9.7803339410707495E-3</v>
       </c>
-      <c r="Z45" s="22">
-        <v>-1.5491878702273488E-2</v>
+      <c r="Z45" s="21">
+        <v>-2.1425329032343544E-2</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4180,19 +4180,19 @@
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15">
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14">
         <v>2833.1810732870981</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="18">
         <v>2</v>
       </c>
       <c r="C47" s="10">
@@ -4204,10 +4204,10 @@
       <c r="E47" s="10">
         <v>0</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="19">
         <v>2</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>29</v>
       </c>
       <c r="H47" s="10">
@@ -4219,10 +4219,10 @@
       <c r="J47" s="10">
         <v>-11</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>5</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="20">
         <v>77.522068965517235</v>
       </c>
       <c r="M47" s="1">
@@ -4234,10 +4234,10 @@
       <c r="O47" s="3">
         <v>0.1923199721646438</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="21">
         <v>3.640838332878564E-2</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="18">
         <v>416758.62068965519</v>
       </c>
       <c r="R47" s="10">
@@ -4249,10 +4249,10 @@
       <c r="T47" s="3">
         <v>0.31237703863055516</v>
       </c>
-      <c r="U47" s="22">
+      <c r="U47" s="21">
         <v>-4.5288935014463384E-2</v>
       </c>
-      <c r="V47" s="23">
+      <c r="V47" s="22">
         <v>5062.9731275771273</v>
       </c>
       <c r="W47" s="2">
@@ -4264,7 +4264,7 @@
       <c r="Y47" s="3">
         <v>0.1378471908036295</v>
       </c>
-      <c r="Z47" s="22">
+      <c r="Z47" s="21">
         <v>-6.0600862668889734E-2</v>
       </c>
     </row>
@@ -4332,13 +4332,13 @@
       <c r="U48" s="8">
         <v>7.0809685697262967E-2</v>
       </c>
-      <c r="V48" s="15">
+      <c r="V48" s="14">
         <v>2528.72855510823</v>
       </c>
-      <c r="W48" s="15">
+      <c r="W48" s="14">
         <v>2838.5519563809685</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="14">
         <v>2914.8394805108887</v>
       </c>
       <c r="Y48" s="8">
@@ -4349,10 +4349,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="18">
         <v>4</v>
       </c>
       <c r="C49" s="10">
@@ -4362,10 +4362,10 @@
       <c r="E49" s="10">
         <v>-2</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>-2</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>8</v>
       </c>
       <c r="H49" s="10">
@@ -4375,10 +4375,10 @@
       <c r="J49" s="10">
         <v>-6</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>-2</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="20">
         <v>75.829999999999984</v>
       </c>
       <c r="M49" s="1">
@@ -4388,10 +4388,10 @@
       <c r="O49" s="3">
         <v>0.26598971383357539</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P49" s="21">
         <v>-1</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="18">
         <v>148762.5</v>
       </c>
       <c r="R49" s="10">
@@ -4401,10 +4401,10 @@
       <c r="T49" s="3">
         <v>5.6045710444500463E-2</v>
       </c>
-      <c r="U49" s="22">
+      <c r="U49" s="21">
         <v>-1</v>
       </c>
-      <c r="V49" s="23">
+      <c r="V49" s="22">
         <v>1995.6075261998799</v>
       </c>
       <c r="W49" s="2">
@@ -4414,7 +4414,7 @@
       <c r="Y49" s="3">
         <v>-0.14768167848025252</v>
       </c>
-      <c r="Z49" s="22">
+      <c r="Z49" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -4482,13 +4482,13 @@
       <c r="U50" s="8">
         <v>-5.591268766425482E-3</v>
       </c>
-      <c r="V50" s="15">
+      <c r="V50" s="14">
         <v>2504.4162191957785</v>
       </c>
-      <c r="W50" s="15">
+      <c r="W50" s="14">
         <v>2746.9926305422709</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="14">
         <v>2757.6565760104777</v>
       </c>
       <c r="Y50" s="8">
@@ -4499,10 +4499,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>4</v>
       </c>
       <c r="C51" s="10">
@@ -4514,10 +4514,10 @@
       <c r="E51" s="10">
         <v>2</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>-3</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="18">
         <v>18</v>
       </c>
       <c r="H51" s="10">
@@ -4529,10 +4529,10 @@
       <c r="J51" s="10">
         <v>55</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>-12</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="20">
         <v>64.374587016622911</v>
       </c>
       <c r="M51" s="1">
@@ -4544,10 +4544,10 @@
       <c r="O51" s="3">
         <v>6.6782660978353225E-2</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="21">
         <v>2.7296377283980897E-3</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="18">
         <v>204550</v>
       </c>
       <c r="R51" s="10">
@@ -4559,10 +4559,10 @@
       <c r="T51" s="3">
         <v>2.8612758377058845E-2</v>
       </c>
-      <c r="U51" s="22">
+      <c r="U51" s="21">
         <v>-1.7652883896378275E-2</v>
       </c>
-      <c r="V51" s="23">
+      <c r="V51" s="22">
         <v>3138.4595523258481</v>
       </c>
       <c r="W51" s="2">
@@ -4574,7 +4574,7 @@
       <c r="Y51" s="3">
         <v>-2.4150372706782212E-2</v>
       </c>
-      <c r="Z51" s="22">
+      <c r="Z51" s="21">
         <v>-1.8365950192883045E-2</v>
       </c>
     </row>
@@ -4642,13 +4642,13 @@
       <c r="U52" s="8">
         <v>5.811949477334038E-3</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="14">
         <v>4645.9604640970256</v>
       </c>
-      <c r="W52" s="15">
+      <c r="W52" s="14">
         <v>4648.7181530743046</v>
       </c>
-      <c r="X52" s="15">
+      <c r="X52" s="14">
         <v>4753.9024610046163</v>
       </c>
       <c r="Y52" s="8">
@@ -4659,10 +4659,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <v>18</v>
       </c>
       <c r="C53" s="10">
@@ -4674,10 +4674,10 @@
       <c r="E53" s="10">
         <v>2</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="19">
         <v>2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>311</v>
       </c>
       <c r="H53" s="10">
@@ -4689,10 +4689,10 @@
       <c r="J53" s="10">
         <v>-42</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>-36</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="20">
         <v>77.928301848447063</v>
       </c>
       <c r="M53" s="1">
@@ -4704,10 +4704,10 @@
       <c r="O53" s="3">
         <v>-3.2734846428318691E-2</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="21">
         <v>5.4805290905132073E-2</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="18">
         <v>349423.36012861738</v>
       </c>
       <c r="R53" s="10">
@@ -4719,10 +4719,10 @@
       <c r="T53" s="3">
         <v>-7.5519864294618474E-2</v>
       </c>
-      <c r="U53" s="22">
+      <c r="U53" s="21">
         <v>4.9314457370270952E-2</v>
       </c>
-      <c r="V53" s="23">
+      <c r="V53" s="22">
         <v>4497.9418158572407</v>
       </c>
       <c r="W53" s="2">
@@ -4734,7 +4734,7 @@
       <c r="Y53" s="3">
         <v>-4.245824440110154E-2</v>
       </c>
-      <c r="Z53" s="22">
+      <c r="Z53" s="21">
         <v>-1.3121318209287078E-3</v>
       </c>
     </row>
@@ -4802,13 +4802,13 @@
       <c r="U54" s="8">
         <v>7.0590004850434693E-2</v>
       </c>
-      <c r="V54" s="15">
+      <c r="V54" s="14">
         <v>3809.87103798617</v>
       </c>
-      <c r="W54" s="15">
+      <c r="W54" s="14">
         <v>3551.2453118326544</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X54" s="14">
         <v>3714.1644926274607</v>
       </c>
       <c r="Y54" s="8">
@@ -4819,10 +4819,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <v>2</v>
       </c>
       <c r="C55" s="10">
@@ -4834,10 +4834,10 @@
       <c r="E55" s="10">
         <v>2</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="19">
         <v>-2</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="18">
         <v>2</v>
       </c>
       <c r="H55" s="10">
@@ -4849,10 +4849,10 @@
       <c r="J55" s="10">
         <v>14</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>-3</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="20">
         <v>50.978000000000002</v>
       </c>
       <c r="M55" s="1">
@@ -4864,10 +4864,10 @@
       <c r="O55" s="3">
         <v>0.71826572246851583</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="21">
         <v>4.734378001591686E-2</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="18">
         <v>106150</v>
       </c>
       <c r="R55" s="10">
@@ -4879,10 +4879,10 @@
       <c r="T55" s="3">
         <v>1.1901789919924635</v>
       </c>
-      <c r="U55" s="22">
+      <c r="U55" s="21">
         <v>0.15308101758986209</v>
       </c>
-      <c r="V55" s="23">
+      <c r="V55" s="22">
         <v>2334.7424148518926</v>
       </c>
       <c r="W55" s="2">
@@ -4894,7 +4894,7 @@
       <c r="Y55" s="3">
         <v>8.3167749816841205E-2</v>
       </c>
-      <c r="Z55" s="22">
+      <c r="Z55" s="21">
         <v>9.1198323043040999E-2</v>
       </c>
     </row>
@@ -4962,13 +4962,13 @@
       <c r="U56" s="8">
         <v>-3.9622254244861413E-3</v>
       </c>
-      <c r="V56" s="15">
+      <c r="V56" s="14">
         <v>3327.5053679408643</v>
       </c>
-      <c r="W56" s="15">
+      <c r="W56" s="14">
         <v>3564.8052009078197</v>
       </c>
-      <c r="X56" s="15">
+      <c r="X56" s="14">
         <v>3535.720560725254</v>
       </c>
       <c r="Y56" s="8">
@@ -4979,10 +4979,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>10</v>
       </c>
       <c r="C57" s="10">
@@ -4994,10 +4994,10 @@
       <c r="E57" s="10">
         <v>0</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="19">
         <v>-5</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="18">
         <v>45</v>
       </c>
       <c r="H57" s="10">
@@ -5009,10 +5009,10 @@
       <c r="J57" s="10">
         <v>20</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <v>-23</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L57" s="20">
         <v>89.040676676676668</v>
       </c>
       <c r="M57" s="1">
@@ -5024,10 +5024,10 @@
       <c r="O57" s="3">
         <v>-6.6567497940462475E-2</v>
       </c>
-      <c r="P57" s="22">
+      <c r="P57" s="21">
         <v>-6.896135467147084E-2</v>
       </c>
-      <c r="Q57" s="19">
+      <c r="Q57" s="18">
         <v>242300</v>
       </c>
       <c r="R57" s="10">
@@ -5039,10 +5039,10 @@
       <c r="T57" s="3">
         <v>4.184894758563764E-2</v>
       </c>
-      <c r="U57" s="22">
+      <c r="U57" s="21">
         <v>4.2869215504296995E-2</v>
       </c>
-      <c r="V57" s="23">
+      <c r="V57" s="22">
         <v>2804.8544563929249</v>
       </c>
       <c r="W57" s="2">
@@ -5054,7 +5054,7 @@
       <c r="Y57" s="3">
         <v>0.11146795480055463</v>
       </c>
-      <c r="Z57" s="22">
+      <c r="Z57" s="21">
         <v>0.10422123598149748</v>
       </c>
     </row>
@@ -5098,19 +5098,19 @@
       </c>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15">
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14">
         <v>5942.5057479777288</v>
       </c>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
         <v>1</v>
@@ -5118,10 +5118,10 @@
       <c r="E59" s="10">
         <v>0</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>1</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10">
         <v>6</v>
@@ -5129,30 +5129,30 @@
       <c r="J59" s="10">
         <v>0</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <v>6</v>
       </c>
-      <c r="L59" s="21"/>
+      <c r="L59" s="20"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1">
         <v>137.34</v>
       </c>
       <c r="O59" s="3"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="19"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="18"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10">
         <v>363000</v>
       </c>
       <c r="T59" s="3"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="23"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="22"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2">
         <v>2643.0755788553947</v>
       </c>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="22"/>
+      <c r="Z59" s="21"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -5218,13 +5218,13 @@
       <c r="U60" s="8">
         <v>-0.22818791946308725</v>
       </c>
-      <c r="V60" s="15">
+      <c r="V60" s="14">
         <v>2534.0931323098644</v>
       </c>
-      <c r="W60" s="15">
+      <c r="W60" s="14">
         <v>1983.3404670285199</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="14">
         <v>2311.6380288521782</v>
       </c>
       <c r="Y60" s="8">
@@ -5235,10 +5235,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="18">
         <v>4</v>
       </c>
       <c r="C61" s="10">
@@ -5250,10 +5250,10 @@
       <c r="E61" s="10">
         <v>-1</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="19">
         <v>-2</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="18">
         <v>24</v>
       </c>
       <c r="H61" s="10">
@@ -5265,10 +5265,10 @@
       <c r="J61" s="10">
         <v>-20</v>
       </c>
-      <c r="K61" s="20">
-        <v>0</v>
-      </c>
-      <c r="L61" s="21">
+      <c r="K61" s="19">
+        <v>0</v>
+      </c>
+      <c r="L61" s="20">
         <v>69.129089566929153</v>
       </c>
       <c r="M61" s="1">
@@ -5280,10 +5280,10 @@
       <c r="O61" s="3">
         <v>-3.3323013240306988E-2</v>
       </c>
-      <c r="P61" s="22">
+      <c r="P61" s="21">
         <v>1.2359727948163497</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="Q61" s="18">
         <v>42811.666666666664</v>
       </c>
       <c r="R61" s="10">
@@ -5295,10 +5295,10 @@
       <c r="T61" s="3">
         <v>0.45521080702300781</v>
       </c>
-      <c r="U61" s="22">
+      <c r="U61" s="21">
         <v>2.1027287319422152</v>
       </c>
-      <c r="V61" s="23">
+      <c r="V61" s="22">
         <v>625.06384092541737</v>
       </c>
       <c r="W61" s="2">
@@ -5310,7 +5310,7 @@
       <c r="Y61" s="3">
         <v>0.52094463625525778</v>
       </c>
-      <c r="Z61" s="22">
+      <c r="Z61" s="21">
         <v>0.36077192358799148</v>
       </c>
     </row>
@@ -5354,19 +5354,19 @@
       </c>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15">
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14">
         <v>3278.1415349647955</v>
       </c>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <v>5</v>
       </c>
       <c r="C63" s="10">
@@ -5378,10 +5378,10 @@
       <c r="E63" s="10">
         <v>-1</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="19">
         <v>5</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="18">
         <v>22</v>
       </c>
       <c r="H63" s="10">
@@ -5393,10 +5393,10 @@
       <c r="J63" s="10">
         <v>9</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>53</v>
       </c>
-      <c r="L63" s="21">
+      <c r="L63" s="20">
         <v>97.878181818181829</v>
       </c>
       <c r="M63" s="1">
@@ -5408,10 +5408,10 @@
       <c r="O63" s="3">
         <v>-0.13897908885484009</v>
       </c>
-      <c r="P63" s="22">
+      <c r="P63" s="21">
         <v>-7.3316126277262625E-2</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="Q63" s="18">
         <v>229372.72727272726</v>
       </c>
       <c r="R63" s="10">
@@ -5423,10 +5423,10 @@
       <c r="T63" s="3">
         <v>2.5517764245468703E-2</v>
       </c>
-      <c r="U63" s="22">
+      <c r="U63" s="21">
         <v>-0.10683593239819239</v>
       </c>
-      <c r="V63" s="23">
+      <c r="V63" s="22">
         <v>2355.5147992721922</v>
       </c>
       <c r="W63" s="2">
@@ -5438,7 +5438,7 @@
       <c r="Y63" s="3">
         <v>0.22236107624636323</v>
       </c>
-      <c r="Z63" s="22">
+      <c r="Z63" s="21">
         <v>-4.6073847827200809E-2</v>
       </c>
     </row>
@@ -5506,13 +5506,13 @@
       <c r="U64" s="8">
         <v>0.27568270481144336</v>
       </c>
-      <c r="V64" s="15">
+      <c r="V64" s="14">
         <v>1994.301282051282</v>
       </c>
-      <c r="W64" s="15">
+      <c r="W64" s="14">
         <v>2911.1179599270326</v>
       </c>
-      <c r="X64" s="15">
+      <c r="X64" s="14">
         <v>3533.3436065572155</v>
       </c>
       <c r="Y64" s="8">
@@ -5523,10 +5523,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="18">
         <v>9</v>
       </c>
       <c r="C65" s="10">
@@ -5538,10 +5538,10 @@
       <c r="E65" s="10">
         <v>1</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="19">
         <v>2</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="18">
         <v>33</v>
       </c>
       <c r="H65" s="10">
@@ -5553,10 +5553,10 @@
       <c r="J65" s="10">
         <v>100</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="19">
         <v>6</v>
       </c>
-      <c r="L65" s="21">
+      <c r="L65" s="20">
         <v>84.986176445960368</v>
       </c>
       <c r="M65" s="1">
@@ -5568,10 +5568,10 @@
       <c r="O65" s="3">
         <v>-0.15770991019463387</v>
       </c>
-      <c r="P65" s="22">
+      <c r="P65" s="21">
         <v>3.9899445580508258E-2</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="Q65" s="18">
         <v>363304.39393939392</v>
       </c>
       <c r="R65" s="10">
@@ -5583,10 +5583,10 @@
       <c r="T65" s="3">
         <v>-0.25725614728410712</v>
       </c>
-      <c r="U65" s="22">
+      <c r="U65" s="21">
         <v>7.624888971210389E-2</v>
       </c>
-      <c r="V65" s="23">
+      <c r="V65" s="22">
         <v>4363.6520483441273</v>
       </c>
       <c r="W65" s="2">
@@ -5598,7 +5598,7 @@
       <c r="Y65" s="3">
         <v>-0.14398647605100312</v>
       </c>
-      <c r="Z65" s="22">
+      <c r="Z65" s="21">
         <v>2.2376208106229346E-2</v>
       </c>
     </row>
@@ -5642,19 +5642,19 @@
       </c>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15">
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14">
         <v>3181.6540240509789</v>
       </c>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
         <v>4</v>
@@ -5662,10 +5662,10 @@
       <c r="E67" s="10">
         <v>0</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="19">
         <v>4</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10">
         <v>23</v>
@@ -5673,30 +5673,30 @@
       <c r="J67" s="10">
         <v>0</v>
       </c>
-      <c r="K67" s="20">
+      <c r="K67" s="19">
         <v>23</v>
       </c>
-      <c r="L67" s="21"/>
+      <c r="L67" s="20"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1">
         <v>80.517947634043452</v>
       </c>
       <c r="O67" s="3"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="19"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="18"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10">
         <v>314086.95652173914</v>
       </c>
       <c r="T67" s="3"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="23"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="22"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2">
         <v>4029.8424714606222</v>
       </c>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="22"/>
+      <c r="Z67" s="21"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
@@ -5738,19 +5738,19 @@
       </c>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15">
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14">
         <v>3952.7761045242332</v>
       </c>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="18">
         <v>2</v>
       </c>
       <c r="C69" s="10">
@@ -5762,10 +5762,10 @@
       <c r="E69" s="10">
         <v>-1</v>
       </c>
-      <c r="F69" s="20">
-        <v>0</v>
-      </c>
-      <c r="G69" s="19">
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="18">
         <v>3</v>
       </c>
       <c r="H69" s="10">
@@ -5777,10 +5777,10 @@
       <c r="J69" s="10">
         <v>-2</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K69" s="19">
         <v>2</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L69" s="20">
         <v>138.5346742090928</v>
       </c>
       <c r="M69" s="1">
@@ -5792,10 +5792,10 @@
       <c r="O69" s="3">
         <v>0.42904997686116408</v>
       </c>
-      <c r="P69" s="22">
+      <c r="P69" s="21">
         <v>-0.46087257708368601</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q69" s="18">
         <v>162246.66666666666</v>
       </c>
       <c r="R69" s="10">
@@ -5807,10 +5807,10 @@
       <c r="T69" s="3">
         <v>0.44841188314089664</v>
       </c>
-      <c r="U69" s="22">
+      <c r="U69" s="21">
         <v>0.13617021276595745</v>
       </c>
-      <c r="V69" s="23">
+      <c r="V69" s="22">
         <v>1113.4073380966854</v>
       </c>
       <c r="W69" s="2">
@@ -5822,7 +5822,7 @@
       <c r="Y69" s="3">
         <v>6.6124387820830702E-2</v>
       </c>
-      <c r="Z69" s="22">
+      <c r="Z69" s="21">
         <v>1.1071133501300037</v>
       </c>
     </row>
@@ -5890,13 +5890,13 @@
       <c r="U70" s="8">
         <v>8.1397509756550912E-2</v>
       </c>
-      <c r="V70" s="15">
+      <c r="V70" s="14">
         <v>3121.2149389828492</v>
       </c>
-      <c r="W70" s="15">
+      <c r="W70" s="14">
         <v>3402.6215495248657</v>
       </c>
-      <c r="X70" s="15">
+      <c r="X70" s="14">
         <v>3668.6083968765579</v>
       </c>
       <c r="Y70" s="8">
@@ -5907,10 +5907,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="18">
         <v>9</v>
       </c>
       <c r="C71" s="10">
@@ -5922,10 +5922,10 @@
       <c r="E71" s="10">
         <v>1</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="19">
         <v>-5</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="18">
         <v>51</v>
       </c>
       <c r="H71" s="10">
@@ -5937,10 +5937,10 @@
       <c r="J71" s="10">
         <v>12</v>
       </c>
-      <c r="K71" s="20">
+      <c r="K71" s="19">
         <v>-19</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="20">
         <v>76.555457751280656</v>
       </c>
       <c r="M71" s="1">
@@ -5952,10 +5952,10 @@
       <c r="O71" s="3">
         <v>-9.1613122379858615E-3</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P71" s="21">
         <v>4.3849265451437261E-3</v>
       </c>
-      <c r="Q71" s="19">
+      <c r="Q71" s="18">
         <v>293090.19607843139</v>
       </c>
       <c r="R71" s="10">
@@ -5967,10 +5967,10 @@
       <c r="T71" s="3">
         <v>-2.5935044198845833E-2</v>
       </c>
-      <c r="U71" s="22">
+      <c r="U71" s="21">
         <v>-2.2816610881917915E-2</v>
       </c>
-      <c r="V71" s="23">
+      <c r="V71" s="22">
         <v>3860.3601701059392</v>
       </c>
       <c r="W71" s="2">
@@ -5982,7 +5982,7 @@
       <c r="Y71" s="3">
         <v>-1.5859897223710326E-2</v>
       </c>
-      <c r="Z71" s="22">
+      <c r="Z71" s="21">
         <v>-2.542933458962977E-2</v>
       </c>
     </row>
@@ -6026,19 +6026,19 @@
       </c>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15">
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14">
         <v>4930.4994261950023</v>
       </c>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="18">
         <v>4</v>
       </c>
       <c r="C73" s="10">
@@ -6050,10 +6050,10 @@
       <c r="E73" s="10">
         <v>-1</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="19">
         <v>-2</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="18">
         <v>14</v>
       </c>
       <c r="H73" s="10">
@@ -6065,10 +6065,10 @@
       <c r="J73" s="10">
         <v>-4</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K73" s="19">
         <v>-9</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L73" s="20">
         <v>169.23971428571426</v>
       </c>
       <c r="M73" s="1">
@@ -6080,10 +6080,10 @@
       <c r="O73" s="3">
         <v>-4.4089617600731899E-2</v>
       </c>
-      <c r="P73" s="22">
+      <c r="P73" s="21">
         <v>8.7416088714163828E-2</v>
       </c>
-      <c r="Q73" s="19">
+      <c r="Q73" s="18">
         <v>611271.42857142852</v>
       </c>
       <c r="R73" s="10">
@@ -6095,10 +6095,10 @@
       <c r="T73" s="3">
         <v>3.6004580616513675E-2</v>
       </c>
-      <c r="U73" s="22">
+      <c r="U73" s="21">
         <v>0.18431025770591208</v>
       </c>
-      <c r="V73" s="23">
+      <c r="V73" s="22">
         <v>3779.758705544587</v>
       </c>
       <c r="W73" s="2">
@@ -6110,7 +6110,7 @@
       <c r="Y73" s="3">
         <v>6.132890215372433E-2</v>
       </c>
-      <c r="Z73" s="22">
+      <c r="Z73" s="21">
         <v>6.275211991865895E-2</v>
       </c>
     </row>
@@ -6178,13 +6178,13 @@
       <c r="U74" s="8">
         <v>0</v>
       </c>
-      <c r="V74" s="15">
+      <c r="V74" s="14">
         <v>2811.4128967746692</v>
       </c>
-      <c r="W74" s="15">
+      <c r="W74" s="14">
         <v>3517.0988763513665</v>
       </c>
-      <c r="X74" s="15">
+      <c r="X74" s="14">
         <v>3517.098876351366</v>
       </c>
       <c r="Y74" s="8">
@@ -6195,10 +6195,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10">
         <v>2</v>
@@ -6206,10 +6206,10 @@
       <c r="E75" s="10">
         <v>0</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="19">
         <v>2</v>
       </c>
-      <c r="G75" s="19"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10">
         <v>6</v>
@@ -6217,30 +6217,30 @@
       <c r="J75" s="10">
         <v>0</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K75" s="19">
         <v>6</v>
       </c>
-      <c r="L75" s="21"/>
+      <c r="L75" s="20"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1">
         <v>55.47405537128828</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="19"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="18"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10">
         <v>140658.33333333334</v>
       </c>
       <c r="T75" s="3"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="23"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="22"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2">
         <v>2566.7694016753512</v>
       </c>
       <c r="Y75" s="3"/>
-      <c r="Z75" s="22"/>
+      <c r="Z75" s="21"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -6306,13 +6306,13 @@
       <c r="U76" s="8">
         <v>-4.3475689104460015E-2</v>
       </c>
-      <c r="V76" s="15">
+      <c r="V76" s="14">
         <v>2188.2595505356489</v>
       </c>
-      <c r="W76" s="15">
+      <c r="W76" s="14">
         <v>2304.7028337219349</v>
       </c>
-      <c r="X76" s="15">
+      <c r="X76" s="14">
         <v>2338.7362887072964</v>
       </c>
       <c r="Y76" s="8">
@@ -6323,10 +6323,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="18">
         <v>2</v>
       </c>
       <c r="C77" s="10"/>
@@ -6334,10 +6334,10 @@
       <c r="E77" s="10">
         <v>-2</v>
       </c>
-      <c r="F77" s="20">
-        <v>0</v>
-      </c>
-      <c r="G77" s="19">
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="18">
         <v>4</v>
       </c>
       <c r="H77" s="10"/>
@@ -6345,10 +6345,10 @@
       <c r="J77" s="10">
         <v>-4</v>
       </c>
-      <c r="K77" s="20">
-        <v>0</v>
-      </c>
-      <c r="L77" s="21">
+      <c r="K77" s="19">
+        <v>0</v>
+      </c>
+      <c r="L77" s="20">
         <v>107.60925196850397</v>
       </c>
       <c r="M77" s="1"/>
@@ -6356,8 +6356,8 @@
       <c r="O77" s="3">
         <v>-1</v>
       </c>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="19">
+      <c r="P77" s="21"/>
+      <c r="Q77" s="18">
         <v>186975</v>
       </c>
       <c r="R77" s="10"/>
@@ -6365,8 +6365,8 @@
       <c r="T77" s="3">
         <v>-1</v>
       </c>
-      <c r="U77" s="22"/>
-      <c r="V77" s="23">
+      <c r="U77" s="21"/>
+      <c r="V77" s="22">
         <v>1670.9234919535038</v>
       </c>
       <c r="W77" s="2"/>
@@ -6374,7 +6374,7 @@
       <c r="Y77" s="3">
         <v>-1</v>
       </c>
-      <c r="Z77" s="22"/>
+      <c r="Z77" s="21"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
@@ -6440,13 +6440,13 @@
       <c r="U78" s="8">
         <v>-6.9658711136616758E-2</v>
       </c>
-      <c r="V78" s="15">
+      <c r="V78" s="14">
         <v>2823.0090499897196</v>
       </c>
-      <c r="W78" s="15">
+      <c r="W78" s="14">
         <v>3482.0969647079778</v>
       </c>
-      <c r="X78" s="15">
+      <c r="X78" s="14">
         <v>3655.2792383117803</v>
       </c>
       <c r="Y78" s="8">
@@ -6457,10 +6457,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10">
         <v>1</v>
@@ -6468,10 +6468,10 @@
       <c r="E79" s="10">
         <v>0</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="19">
         <v>1</v>
       </c>
-      <c r="G79" s="19"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10">
         <v>2</v>
@@ -6479,30 +6479,30 @@
       <c r="J79" s="10">
         <v>0</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="19">
         <v>2</v>
       </c>
-      <c r="L79" s="21"/>
+      <c r="L79" s="20"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1">
         <v>286.27869904049999</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="19"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="18"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10">
         <v>575000</v>
       </c>
       <c r="T79" s="3"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="23"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="22"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2">
         <v>2007.1162344128966</v>
       </c>
       <c r="Y79" s="3"/>
-      <c r="Z79" s="22"/>
+      <c r="Z79" s="21"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -6568,13 +6568,13 @@
       <c r="U80" s="8">
         <v>0</v>
       </c>
-      <c r="V80" s="15">
+      <c r="V80" s="14">
         <v>5255.5560355838079</v>
       </c>
-      <c r="W80" s="15">
+      <c r="W80" s="14">
         <v>6397.8992318553373</v>
       </c>
-      <c r="X80" s="15">
+      <c r="X80" s="14">
         <v>6397.8992318553373</v>
       </c>
       <c r="Y80" s="8">
@@ -6585,10 +6585,10 @@
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="18">
         <v>14</v>
       </c>
       <c r="C81" s="10">
@@ -6600,10 +6600,10 @@
       <c r="E81" s="10">
         <v>1</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="19">
         <v>2</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="18">
         <v>64</v>
       </c>
       <c r="H81" s="10">
@@ -6615,10 +6615,10 @@
       <c r="J81" s="10">
         <v>74</v>
       </c>
-      <c r="K81" s="20">
+      <c r="K81" s="19">
         <v>-17</v>
       </c>
-      <c r="L81" s="21">
+      <c r="L81" s="20">
         <v>94.936476632882872</v>
       </c>
       <c r="M81" s="1">
@@ -6630,10 +6630,10 @@
       <c r="O81" s="3">
         <v>-0.13841908376229031</v>
       </c>
-      <c r="P81" s="22">
+      <c r="P81" s="21">
         <v>-9.2882385759139971E-2</v>
       </c>
-      <c r="Q81" s="19">
+      <c r="Q81" s="18">
         <v>269906.25</v>
       </c>
       <c r="R81" s="10">
@@ -6645,10 +6645,10 @@
       <c r="T81" s="3">
         <v>-1.1291158866554997E-2</v>
       </c>
-      <c r="U81" s="22">
+      <c r="U81" s="21">
         <v>-2.962852500327361E-2</v>
       </c>
-      <c r="V81" s="23">
+      <c r="V81" s="22">
         <v>2961.8848656914133</v>
       </c>
       <c r="W81" s="2">
@@ -6660,7 +6660,7 @@
       <c r="Y81" s="3">
         <v>0.13646077514688443</v>
       </c>
-      <c r="Z81" s="22">
+      <c r="Z81" s="21">
         <v>4.8679308702522558E-2</v>
       </c>
     </row>
@@ -6720,35 +6720,35 @@
         <v>291404.39821029082</v>
       </c>
       <c r="S82" s="9">
-        <v>298598.10834813496</v>
+        <v>296466.66962699825</v>
       </c>
       <c r="T82" s="8">
         <v>5.7977050720539689E-3</v>
       </c>
       <c r="U82" s="8">
-        <v>2.4686347158881357E-2</v>
-      </c>
-      <c r="V82" s="15">
+        <v>1.7371980134130514E-2</v>
+      </c>
+      <c r="V82" s="14">
         <v>3487.9571684832808</v>
       </c>
-      <c r="W82" s="15">
+      <c r="W82" s="14">
         <v>3782.5728040003419</v>
       </c>
-      <c r="X82" s="15">
-        <v>3965.2233800286622</v>
+      <c r="X82" s="14">
+        <v>3931.4124866096149</v>
       </c>
       <c r="Y82" s="8">
         <v>8.4466529055794867E-2</v>
       </c>
       <c r="Z82" s="8">
-        <v>4.8287392072177492E-2</v>
+        <v>3.9348795204117264E-2</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="18">
         <v>8</v>
       </c>
       <c r="C83" s="10">
@@ -6760,10 +6760,10 @@
       <c r="E83" s="10">
         <v>-2</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="19">
         <v>1</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="18">
         <v>60</v>
       </c>
       <c r="H83" s="10">
@@ -6775,10 +6775,10 @@
       <c r="J83" s="10">
         <v>24</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="19">
         <v>14</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L83" s="20">
         <v>93.524743243243336</v>
       </c>
       <c r="M83" s="1">
@@ -6790,10 +6790,10 @@
       <c r="O83" s="3">
         <v>-0.11438377813575301</v>
       </c>
-      <c r="P83" s="22">
+      <c r="P83" s="21">
         <v>2.0393455618879713E-2</v>
       </c>
-      <c r="Q83" s="19">
+      <c r="Q83" s="18">
         <v>245736.66666666666</v>
       </c>
       <c r="R83" s="10">
@@ -6805,10 +6805,10 @@
       <c r="T83" s="3">
         <v>-7.916236311808808E-2</v>
       </c>
-      <c r="U83" s="22">
+      <c r="U83" s="21">
         <v>2.3622833729937114E-2</v>
       </c>
-      <c r="V83" s="23">
+      <c r="V83" s="22">
         <v>2790.9474135140922</v>
       </c>
       <c r="W83" s="2">
@@ -6820,7 +6820,7 @@
       <c r="Y83" s="3">
         <v>-1.5813002109744286E-2</v>
       </c>
-      <c r="Z83" s="22">
+      <c r="Z83" s="21">
         <v>2.0598746141518767E-3</v>
       </c>
     </row>
@@ -6888,13 +6888,13 @@
       <c r="U84" s="8">
         <v>2.1798365122615803E-2</v>
       </c>
-      <c r="V84" s="15">
+      <c r="V84" s="14">
         <v>2078.6661002856326</v>
       </c>
-      <c r="W84" s="15">
+      <c r="W84" s="14">
         <v>2957.2482426849929</v>
       </c>
-      <c r="X84" s="15">
+      <c r="X84" s="14">
         <v>2882.192815280745</v>
       </c>
       <c r="Y84" s="8">
@@ -6905,10 +6905,10 @@
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="18">
         <v>6</v>
       </c>
       <c r="C85" s="10">
@@ -6920,10 +6920,10 @@
       <c r="E85" s="10">
         <v>3</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="19">
         <v>-5</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="18">
         <v>25</v>
       </c>
       <c r="H85" s="10">
@@ -6935,10 +6935,10 @@
       <c r="J85" s="10">
         <v>11</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K85" s="19">
         <v>-5</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="20">
         <v>80.829333953488373</v>
       </c>
       <c r="M85" s="1">
@@ -6950,10 +6950,10 @@
       <c r="O85" s="3">
         <v>-5.844455580598229E-2</v>
       </c>
-      <c r="P85" s="22">
+      <c r="P85" s="21">
         <v>-2.7378663470455498E-2</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q85" s="18">
         <v>305196</v>
       </c>
       <c r="R85" s="10">
@@ -6965,10 +6965,10 @@
       <c r="T85" s="3">
         <v>3.9022646284864682E-2</v>
       </c>
-      <c r="U85" s="22">
+      <c r="U85" s="21">
         <v>4.855183732337072E-3</v>
       </c>
-      <c r="V85" s="23">
+      <c r="V85" s="22">
         <v>3849.5829046539252</v>
       </c>
       <c r="W85" s="2">
@@ -6980,7 +6980,7 @@
       <c r="Y85" s="3">
         <v>8.9642105371428582E-2</v>
       </c>
-      <c r="Z85" s="22">
+      <c r="Z85" s="21">
         <v>2.8138233420148252E-2</v>
       </c>
     </row>
@@ -7048,13 +7048,13 @@
       <c r="U86" s="8">
         <v>0</v>
       </c>
-      <c r="V86" s="15">
+      <c r="V86" s="14">
         <v>3040.3129028665358</v>
       </c>
-      <c r="W86" s="15">
+      <c r="W86" s="14">
         <v>3035.9288701623695</v>
       </c>
-      <c r="X86" s="15">
+      <c r="X86" s="14">
         <v>3035.9288701623695</v>
       </c>
       <c r="Y86" s="8">
@@ -7065,10 +7065,10 @@
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10">
         <v>4</v>
@@ -7076,10 +7076,10 @@
       <c r="E87" s="10">
         <v>0</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="19">
         <v>4</v>
       </c>
-      <c r="G87" s="19"/>
+      <c r="G87" s="18"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10">
         <v>26</v>
@@ -7087,30 +7087,30 @@
       <c r="J87" s="10">
         <v>0</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K87" s="19">
         <v>26</v>
       </c>
-      <c r="L87" s="21"/>
+      <c r="L87" s="20"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1">
         <v>112.4525007882693</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="19"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="18"/>
       <c r="R87" s="10"/>
       <c r="S87" s="10">
         <v>432563.42307692306</v>
       </c>
       <c r="T87" s="3"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="23"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="22"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2">
         <v>3882.4957168468754</v>
       </c>
       <c r="Y87" s="3"/>
-      <c r="Z87" s="22"/>
+      <c r="Z87" s="21"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
@@ -7176,13 +7176,13 @@
       <c r="U88" s="8">
         <v>9.2835632045182781E-5</v>
       </c>
-      <c r="V88" s="15">
+      <c r="V88" s="14">
         <v>4101.598659476168</v>
       </c>
-      <c r="W88" s="15">
+      <c r="W88" s="14">
         <v>4512.6173430724075</v>
       </c>
-      <c r="X88" s="15">
+      <c r="X88" s="14">
         <v>4555.6115291327733</v>
       </c>
       <c r="Y88" s="8">
@@ -7193,10 +7193,10 @@
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="18">
         <v>7</v>
       </c>
       <c r="C89" s="10">
@@ -7206,10 +7206,10 @@
       <c r="E89" s="10">
         <v>-4</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="19">
         <v>-3</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="18">
         <v>27</v>
       </c>
       <c r="H89" s="10">
@@ -7219,10 +7219,10 @@
       <c r="J89" s="10">
         <v>-14</v>
       </c>
-      <c r="K89" s="20">
+      <c r="K89" s="19">
         <v>-13</v>
       </c>
-      <c r="L89" s="21">
+      <c r="L89" s="20">
         <v>59.251020613789628</v>
       </c>
       <c r="M89" s="1">
@@ -7232,10 +7232,10 @@
       <c r="O89" s="3">
         <v>4.1389186248241394E-2</v>
       </c>
-      <c r="P89" s="22">
+      <c r="P89" s="21">
         <v>-1</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q89" s="18">
         <v>83887.481481481474</v>
       </c>
       <c r="R89" s="10">
@@ -7245,10 +7245,10 @@
       <c r="T89" s="3">
         <v>0.23347459115123217</v>
       </c>
-      <c r="U89" s="22">
+      <c r="U89" s="21">
         <v>-1</v>
       </c>
-      <c r="V89" s="23">
+      <c r="V89" s="22">
         <v>1473.3839843961885</v>
       </c>
       <c r="W89" s="2">
@@ -7258,7 +7258,7 @@
       <c r="Y89" s="3">
         <v>0.20264575299389634</v>
       </c>
-      <c r="Z89" s="22">
+      <c r="Z89" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -7306,21 +7306,21 @@
         <v>-1</v>
       </c>
       <c r="U90" s="8"/>
-      <c r="V90" s="15">
+      <c r="V90" s="14">
         <v>2866.9926302152985</v>
       </c>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
       <c r="Y90" s="8">
         <v>-1</v>
       </c>
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="18">
         <v>22</v>
       </c>
       <c r="C91" s="10">
@@ -7332,10 +7332,10 @@
       <c r="E91" s="10">
         <v>-2</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="19">
         <v>-1</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="18">
         <v>214</v>
       </c>
       <c r="H91" s="10">
@@ -7347,10 +7347,10 @@
       <c r="J91" s="10">
         <v>-4</v>
       </c>
-      <c r="K91" s="20">
+      <c r="K91" s="19">
         <v>-33</v>
       </c>
-      <c r="L91" s="21">
+      <c r="L91" s="20">
         <v>119.27879464463436</v>
       </c>
       <c r="M91" s="1">
@@ -7362,10 +7362,10 @@
       <c r="O91" s="3">
         <v>-0.1677067110802401</v>
       </c>
-      <c r="P91" s="22">
+      <c r="P91" s="21">
         <v>-3.5085923270073101E-2</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q91" s="18">
         <v>532647.83177570091</v>
       </c>
       <c r="R91" s="10">
@@ -7377,10 +7377,10 @@
       <c r="T91" s="3">
         <v>6.8261705028381872E-2</v>
       </c>
-      <c r="U91" s="22">
+      <c r="U91" s="21">
         <v>-3.7360113775462729E-3</v>
       </c>
-      <c r="V91" s="23">
+      <c r="V91" s="22">
         <v>4944.8582598675976</v>
       </c>
       <c r="W91" s="2">
@@ -7392,7 +7392,7 @@
       <c r="Y91" s="3">
         <v>0.18496199959306833</v>
       </c>
-      <c r="Z91" s="22">
+      <c r="Z91" s="21">
         <v>4.1641437249782656E-2</v>
       </c>
     </row>
@@ -7440,21 +7440,21 @@
         <v>-1</v>
       </c>
       <c r="U92" s="8"/>
-      <c r="V92" s="15">
+      <c r="V92" s="14">
         <v>3363.1910556871785</v>
       </c>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
       <c r="Y92" s="8">
         <v>-1</v>
       </c>
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="18">
         <v>14</v>
       </c>
       <c r="C93" s="10">
@@ -7466,10 +7466,10 @@
       <c r="E93" s="10">
         <v>-3</v>
       </c>
-      <c r="F93" s="20">
-        <v>0</v>
-      </c>
-      <c r="G93" s="19">
+      <c r="F93" s="19">
+        <v>0</v>
+      </c>
+      <c r="G93" s="18">
         <v>65</v>
       </c>
       <c r="H93" s="10">
@@ -7481,10 +7481,10 @@
       <c r="J93" s="10">
         <v>-6</v>
       </c>
-      <c r="K93" s="20">
+      <c r="K93" s="19">
         <v>6</v>
       </c>
-      <c r="L93" s="21">
+      <c r="L93" s="20">
         <v>97.808307692307707</v>
       </c>
       <c r="M93" s="1">
@@ -7496,10 +7496,10 @@
       <c r="O93" s="3">
         <v>-0.15188501032922727</v>
       </c>
-      <c r="P93" s="22">
+      <c r="P93" s="21">
         <v>3.6678716142526227E-2</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="Q93" s="18">
         <v>446759.76923076925</v>
       </c>
       <c r="R93" s="10">
@@ -7511,10 +7511,10 @@
       <c r="T93" s="3">
         <v>-0.1130060322546811</v>
       </c>
-      <c r="U93" s="22">
+      <c r="U93" s="21">
         <v>1.096394978034597E-3</v>
       </c>
-      <c r="V93" s="23">
+      <c r="V93" s="22">
         <v>4580.8281086810457</v>
       </c>
       <c r="W93" s="2">
@@ -7526,7 +7526,7 @@
       <c r="Y93" s="3">
         <v>4.0789662335377945E-2</v>
       </c>
-      <c r="Z93" s="22">
+      <c r="Z93" s="21">
         <v>-2.669032744772044E-2</v>
       </c>
     </row>
@@ -7570,19 +7570,19 @@
       </c>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15">
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14">
         <v>2251.1220221219096</v>
       </c>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="18">
         <v>5</v>
       </c>
       <c r="C95" s="10">
@@ -7594,10 +7594,10 @@
       <c r="E95" s="10">
         <v>0</v>
       </c>
-      <c r="F95" s="20">
-        <v>0</v>
-      </c>
-      <c r="G95" s="19">
+      <c r="F95" s="19">
+        <v>0</v>
+      </c>
+      <c r="G95" s="18">
         <v>16</v>
       </c>
       <c r="H95" s="10">
@@ -7609,10 +7609,10 @@
       <c r="J95" s="10">
         <v>62</v>
       </c>
-      <c r="K95" s="20">
+      <c r="K95" s="19">
         <v>-1</v>
       </c>
-      <c r="L95" s="21">
+      <c r="L95" s="20">
         <v>78.570283220720725</v>
       </c>
       <c r="M95" s="1">
@@ -7624,10 +7624,10 @@
       <c r="O95" s="3">
         <v>-4.2573204545333647E-4</v>
       </c>
-      <c r="P95" s="22">
+      <c r="P95" s="21">
         <v>8.9408512844647305E-4</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q95" s="18">
         <v>370312.5</v>
       </c>
       <c r="R95" s="10">
@@ -7639,10 +7639,10 @@
       <c r="T95" s="3">
         <v>0.10855436546575781</v>
       </c>
-      <c r="U95" s="22">
+      <c r="U95" s="21">
         <v>-9.8035625004792046E-4</v>
       </c>
-      <c r="V95" s="23">
+      <c r="V95" s="22">
         <v>4787.3133702593868</v>
       </c>
       <c r="W95" s="2">
@@ -7654,7 +7654,7 @@
       <c r="Y95" s="3">
         <v>8.7635759447720396E-2</v>
       </c>
-      <c r="Z95" s="22">
+      <c r="Z95" s="21">
         <v>-2.4056005938658401E-3</v>
       </c>
     </row>
@@ -7722,13 +7722,13 @@
       <c r="U96" s="8">
         <v>-0.55088783996403679</v>
       </c>
-      <c r="V96" s="15">
+      <c r="V96" s="14">
         <v>5411.2403588462967</v>
       </c>
-      <c r="W96" s="15">
+      <c r="W96" s="14">
         <v>8204.9787119009761</v>
       </c>
-      <c r="X96" s="15">
+      <c r="X96" s="14">
         <v>6426.6863513248973</v>
       </c>
       <c r="Y96" s="8">
@@ -7739,10 +7739,10 @@
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="18">
         <v>8</v>
       </c>
       <c r="C97" s="10">
@@ -7754,10 +7754,10 @@
       <c r="E97" s="10">
         <v>0</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F97" s="19">
         <v>-2</v>
       </c>
-      <c r="G97" s="19">
+      <c r="G97" s="18">
         <v>48</v>
       </c>
       <c r="H97" s="10">
@@ -7769,10 +7769,10 @@
       <c r="J97" s="10">
         <v>69</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K97" s="19">
         <v>-58</v>
       </c>
-      <c r="L97" s="21">
+      <c r="L97" s="20">
         <v>77.275422400747146</v>
       </c>
       <c r="M97" s="1">
@@ -7784,10 +7784,10 @@
       <c r="O97" s="3">
         <v>-2.7238613856396955E-2</v>
       </c>
-      <c r="P97" s="22">
+      <c r="P97" s="21">
         <v>-5.1311417902146113E-2</v>
       </c>
-      <c r="Q97" s="19">
+      <c r="Q97" s="18">
         <v>238072.91666666666</v>
       </c>
       <c r="R97" s="10">
@@ -7799,10 +7799,10 @@
       <c r="T97" s="3">
         <v>-5.6375477508708817E-3</v>
       </c>
-      <c r="U97" s="22">
+      <c r="U97" s="21">
         <v>4.1661044486362257E-2</v>
       </c>
-      <c r="V97" s="23">
+      <c r="V97" s="22">
         <v>3267.7081928804</v>
       </c>
       <c r="W97" s="2">
@@ -7814,7 +7814,7 @@
       <c r="Y97" s="3">
         <v>-2.6516897430122609E-2</v>
       </c>
-      <c r="Z97" s="22">
+      <c r="Z97" s="21">
         <v>9.9015399198174633E-2</v>
       </c>
     </row>
@@ -7858,19 +7858,19 @@
       </c>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15">
+      <c r="V98" s="14"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="14">
         <v>2617.3027505472542</v>
       </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="18">
         <v>3</v>
       </c>
       <c r="C99" s="10"/>
@@ -7878,10 +7878,10 @@
       <c r="E99" s="10">
         <v>-3</v>
       </c>
-      <c r="F99" s="20">
-        <v>0</v>
-      </c>
-      <c r="G99" s="19">
+      <c r="F99" s="19">
+        <v>0</v>
+      </c>
+      <c r="G99" s="18">
         <v>9</v>
       </c>
       <c r="H99" s="10"/>
@@ -7889,10 +7889,10 @@
       <c r="J99" s="10">
         <v>-9</v>
       </c>
-      <c r="K99" s="20">
-        <v>0</v>
-      </c>
-      <c r="L99" s="21">
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+      <c r="L99" s="20">
         <v>84.573333333333323</v>
       </c>
       <c r="M99" s="1"/>
@@ -7900,8 +7900,8 @@
       <c r="O99" s="3">
         <v>-1</v>
       </c>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="19">
+      <c r="P99" s="21"/>
+      <c r="Q99" s="18">
         <v>183666.66666666666</v>
       </c>
       <c r="R99" s="10"/>
@@ -7909,8 +7909,8 @@
       <c r="T99" s="3">
         <v>-1</v>
       </c>
-      <c r="U99" s="22"/>
-      <c r="V99" s="23">
+      <c r="U99" s="21"/>
+      <c r="V99" s="22">
         <v>2227.4162656982953</v>
       </c>
       <c r="W99" s="2"/>
@@ -7918,7 +7918,7 @@
       <c r="Y99" s="3">
         <v>-1</v>
       </c>
-      <c r="Z99" s="22"/>
+      <c r="Z99" s="21"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -7984,13 +7984,13 @@
       <c r="U100" s="8">
         <v>2.8249465161562112E-2</v>
       </c>
-      <c r="V100" s="15">
+      <c r="V100" s="14">
         <v>4051.6348183233085</v>
       </c>
-      <c r="W100" s="15">
+      <c r="W100" s="14">
         <v>4617.1484882532059</v>
       </c>
-      <c r="X100" s="15">
+      <c r="X100" s="14">
         <v>4801.7116015645261</v>
       </c>
       <c r="Y100" s="8">
@@ -8001,10 +8001,10 @@
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="18">
         <v>6</v>
       </c>
       <c r="C101" s="10">
@@ -8016,67 +8016,67 @@
       <c r="E101" s="10">
         <v>-1</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="19">
         <v>-3</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G101" s="26">
         <v>71</v>
       </c>
-      <c r="H101" s="28">
+      <c r="H101" s="27">
         <v>82</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="27">
         <v>29</v>
       </c>
       <c r="J101" s="10">
         <v>11</v>
       </c>
-      <c r="K101" s="20">
+      <c r="K101" s="19">
         <v>-53</v>
       </c>
-      <c r="L101" s="32">
+      <c r="L101" s="31">
         <v>81.282507042253528</v>
       </c>
-      <c r="M101" s="33">
+      <c r="M101" s="32">
         <v>72.350985895086225</v>
       </c>
-      <c r="N101" s="33">
+      <c r="N101" s="32">
         <v>73.603793103448268</v>
       </c>
-      <c r="O101" s="34">
+      <c r="O101" s="33">
         <v>-0.10988245161439694</v>
       </c>
-      <c r="P101" s="35">
+      <c r="P101" s="34">
         <v>1.7315689521891206E-2</v>
       </c>
-      <c r="Q101" s="27">
+      <c r="Q101" s="26">
         <v>229397.12676056338</v>
       </c>
-      <c r="R101" s="28">
+      <c r="R101" s="27">
         <v>213755.40243902439</v>
       </c>
-      <c r="S101" s="28">
+      <c r="S101" s="27">
         <v>246637.93103448275</v>
       </c>
-      <c r="T101" s="34">
+      <c r="T101" s="33">
         <v>-6.8186225967273209E-2</v>
       </c>
-      <c r="U101" s="35">
+      <c r="U101" s="34">
         <v>0.15383250303972271</v>
       </c>
-      <c r="V101" s="38">
+      <c r="V101" s="37">
         <v>2941.2342918937161</v>
       </c>
-      <c r="W101" s="39">
+      <c r="W101" s="38">
         <v>2952.4695188487362</v>
       </c>
-      <c r="X101" s="39">
+      <c r="X101" s="38">
         <v>3350.3446536539141</v>
       </c>
-      <c r="Y101" s="34">
+      <c r="Y101" s="33">
         <v>3.8199020683205563E-3</v>
       </c>
-      <c r="Z101" s="35">
+      <c r="Z101" s="34">
         <v>0.13476011598599746</v>
       </c>
     </row>
@@ -8144,13 +8144,13 @@
       <c r="U102" s="8">
         <v>0</v>
       </c>
-      <c r="V102" s="15">
+      <c r="V102" s="14">
         <v>1444.2800889308398</v>
       </c>
-      <c r="W102" s="15">
+      <c r="W102" s="14">
         <v>2270.8440247095709</v>
       </c>
-      <c r="X102" s="15">
+      <c r="X102" s="14">
         <v>2270.8440247095709</v>
       </c>
       <c r="Y102" s="8">
@@ -8161,10 +8161,10 @@
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="18">
         <v>13</v>
       </c>
       <c r="C103" s="10">
@@ -8176,67 +8176,67 @@
       <c r="E103" s="10">
         <v>-3</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="19">
         <v>-3</v>
       </c>
-      <c r="G103" s="27">
+      <c r="G103" s="26">
         <v>174</v>
       </c>
-      <c r="H103" s="28">
+      <c r="H103" s="27">
         <v>92</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="27">
         <v>50</v>
       </c>
       <c r="J103" s="10">
         <v>-82</v>
       </c>
-      <c r="K103" s="20">
+      <c r="K103" s="19">
         <v>-42</v>
       </c>
-      <c r="L103" s="32">
+      <c r="L103" s="31">
         <v>100.70414555106285</v>
       </c>
-      <c r="M103" s="33">
+      <c r="M103" s="32">
         <v>138.05102594602675</v>
       </c>
-      <c r="N103" s="33">
+      <c r="N103" s="32">
         <v>132.47859048557663</v>
       </c>
-      <c r="O103" s="34">
+      <c r="O103" s="33">
         <v>0.3708574278705028</v>
       </c>
-      <c r="P103" s="35">
+      <c r="P103" s="34">
         <v>-4.0365041999968584E-2</v>
       </c>
-      <c r="Q103" s="27">
+      <c r="Q103" s="26">
         <v>489971.2643678161</v>
       </c>
-      <c r="R103" s="28">
+      <c r="R103" s="27">
         <v>730032.60869565222</v>
       </c>
-      <c r="S103" s="28">
+      <c r="S103" s="27">
         <v>788500</v>
       </c>
-      <c r="T103" s="34">
+      <c r="T103" s="33">
         <v>0.48994984356393745</v>
       </c>
-      <c r="U103" s="35">
+      <c r="U103" s="34">
         <v>8.0088739335646045E-2</v>
       </c>
-      <c r="V103" s="38">
+      <c r="V103" s="37">
         <v>4964.7179341363362</v>
       </c>
-      <c r="W103" s="39">
+      <c r="W103" s="38">
         <v>5283.8637133533457</v>
       </c>
-      <c r="X103" s="39">
+      <c r="X103" s="38">
         <v>5626.3437051399469</v>
       </c>
-      <c r="Y103" s="34">
+      <c r="Y103" s="33">
         <v>6.4282761568916436E-2</v>
       </c>
-      <c r="Z103" s="35">
+      <c r="Z103" s="34">
         <v>6.4816204649845152E-2</v>
       </c>
     </row>
@@ -8284,21 +8284,21 @@
         <v>-1</v>
       </c>
       <c r="U104" s="8"/>
-      <c r="V104" s="15">
+      <c r="V104" s="14">
         <v>948.85057471264383</v>
       </c>
-      <c r="W104" s="15"/>
-      <c r="X104" s="15"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="14"/>
       <c r="Y104" s="8">
         <v>-1</v>
       </c>
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="19">
+      <c r="B105" s="18">
         <v>10</v>
       </c>
       <c r="C105" s="10">
@@ -8310,67 +8310,67 @@
       <c r="E105" s="10">
         <v>1</v>
       </c>
-      <c r="F105" s="20">
-        <v>0</v>
-      </c>
-      <c r="G105" s="27">
+      <c r="F105" s="19">
+        <v>0</v>
+      </c>
+      <c r="G105" s="26">
         <v>34</v>
       </c>
-      <c r="H105" s="28">
+      <c r="H105" s="27">
         <v>131</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="27">
         <v>98</v>
       </c>
       <c r="J105" s="10">
         <v>97</v>
       </c>
-      <c r="K105" s="20">
+      <c r="K105" s="19">
         <v>-33</v>
       </c>
-      <c r="L105" s="32">
+      <c r="L105" s="31">
         <v>92.044598267213857</v>
       </c>
-      <c r="M105" s="33">
+      <c r="M105" s="32">
         <v>84.497428093461352</v>
       </c>
-      <c r="N105" s="33">
+      <c r="N105" s="32">
         <v>86.783398777994378</v>
       </c>
-      <c r="O105" s="34">
+      <c r="O105" s="33">
         <v>-8.1994710345113159E-2</v>
       </c>
-      <c r="P105" s="35">
+      <c r="P105" s="34">
         <v>2.7053730937284248E-2</v>
       </c>
-      <c r="Q105" s="27">
+      <c r="Q105" s="26">
         <v>317082.35294117645</v>
       </c>
-      <c r="R105" s="28">
+      <c r="R105" s="27">
         <v>315364.88549618318</v>
       </c>
-      <c r="S105" s="28">
+      <c r="S105" s="27">
         <v>324177.55102040817</v>
       </c>
-      <c r="T105" s="34">
+      <c r="T105" s="33">
         <v>-5.4164712386623442E-3</v>
       </c>
-      <c r="U105" s="35">
+      <c r="U105" s="34">
         <v>2.7944346151155888E-2</v>
       </c>
-      <c r="V105" s="38">
+      <c r="V105" s="37">
         <v>3119.8565754480815</v>
       </c>
-      <c r="W105" s="39">
+      <c r="W105" s="38">
         <v>3627.7616946451608</v>
       </c>
-      <c r="X105" s="39">
+      <c r="X105" s="38">
         <v>3579.5684437533964</v>
       </c>
-      <c r="Y105" s="34">
+      <c r="Y105" s="33">
         <v>0.16279758601535479</v>
       </c>
-      <c r="Z105" s="35">
+      <c r="Z105" s="34">
         <v>-1.3284569094739905E-2</v>
       </c>
     </row>
@@ -8438,13 +8438,13 @@
       <c r="U106" s="8">
         <v>0.14142033607261131</v>
       </c>
-      <c r="V106" s="15">
+      <c r="V106" s="14">
         <v>1394.0634970497597</v>
       </c>
-      <c r="W106" s="15">
+      <c r="W106" s="14">
         <v>1259.1365972363872</v>
       </c>
-      <c r="X106" s="15">
+      <c r="X106" s="14">
         <v>1427.4531817229599</v>
       </c>
       <c r="Y106" s="8">
@@ -8455,10 +8455,10 @@
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B107" s="18">
         <v>25</v>
       </c>
       <c r="C107" s="10">
@@ -8470,67 +8470,67 @@
       <c r="E107" s="10">
         <v>13</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F107" s="19">
         <v>5</v>
       </c>
-      <c r="G107" s="27">
+      <c r="G107" s="26">
         <v>172</v>
       </c>
-      <c r="H107" s="28">
+      <c r="H107" s="27">
         <v>713</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I107" s="27">
         <v>651</v>
       </c>
       <c r="J107" s="10">
         <v>541</v>
       </c>
-      <c r="K107" s="20">
+      <c r="K107" s="19">
         <v>-62</v>
       </c>
-      <c r="L107" s="32">
+      <c r="L107" s="31">
         <v>76.246143964748853</v>
       </c>
-      <c r="M107" s="33">
+      <c r="M107" s="32">
         <v>71.113995046940332</v>
       </c>
-      <c r="N107" s="33">
+      <c r="N107" s="32">
         <v>70.05259643884051</v>
       </c>
-      <c r="O107" s="34">
+      <c r="O107" s="33">
         <v>-6.7310274998054795E-2</v>
       </c>
-      <c r="P107" s="35">
+      <c r="P107" s="34">
         <v>-1.4925312625162213E-2</v>
       </c>
-      <c r="Q107" s="27">
+      <c r="Q107" s="26">
         <v>238147.13372093023</v>
       </c>
-      <c r="R107" s="28">
+      <c r="R107" s="27">
         <v>245931.5175315568</v>
       </c>
-      <c r="S107" s="28">
+      <c r="S107" s="27">
         <v>241486.43932411674</v>
       </c>
-      <c r="T107" s="34">
+      <c r="T107" s="33">
         <v>3.2687287430251455E-2</v>
       </c>
-      <c r="U107" s="35">
+      <c r="U107" s="34">
         <v>-1.8074455246955858E-2</v>
       </c>
-      <c r="V107" s="38">
+      <c r="V107" s="37">
         <v>3175.807266521595</v>
       </c>
-      <c r="W107" s="39">
+      <c r="W107" s="38">
         <v>3456.5601515419426</v>
       </c>
-      <c r="X107" s="39">
+      <c r="X107" s="38">
         <v>3459.0239995753641</v>
       </c>
-      <c r="Y107" s="34">
+      <c r="Y107" s="33">
         <v>8.8403628261689557E-2</v>
       </c>
-      <c r="Z107" s="35">
+      <c r="Z107" s="34">
         <v>7.1280345933584445E-4</v>
       </c>
     </row>
@@ -8598,13 +8598,13 @@
       <c r="U108" s="8">
         <v>-0.43441636582430809</v>
       </c>
-      <c r="V108" s="15">
+      <c r="V108" s="14">
         <v>2113.5055082782951</v>
       </c>
-      <c r="W108" s="15">
+      <c r="W108" s="14">
         <v>1708.8729049205174</v>
       </c>
-      <c r="X108" s="15">
+      <c r="X108" s="14">
         <v>1706.0740081684992</v>
       </c>
       <c r="Y108" s="8">
@@ -8615,10 +8615,10 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="18">
         <v>4</v>
       </c>
       <c r="C109" s="10">
@@ -8630,67 +8630,67 @@
       <c r="E109" s="10">
         <v>-2</v>
       </c>
-      <c r="F109" s="20">
-        <v>0</v>
-      </c>
-      <c r="G109" s="27">
+      <c r="F109" s="19">
+        <v>0</v>
+      </c>
+      <c r="G109" s="26">
         <v>15</v>
       </c>
-      <c r="H109" s="28">
+      <c r="H109" s="27">
         <v>8</v>
       </c>
-      <c r="I109" s="28">
+      <c r="I109" s="27">
         <v>20</v>
       </c>
       <c r="J109" s="10">
         <v>-7</v>
       </c>
-      <c r="K109" s="20">
+      <c r="K109" s="19">
         <v>12</v>
       </c>
-      <c r="L109" s="32">
+      <c r="L109" s="31">
         <v>72.324307611548562</v>
       </c>
-      <c r="M109" s="33">
+      <c r="M109" s="32">
         <v>59.132250000000006</v>
       </c>
-      <c r="N109" s="33">
+      <c r="N109" s="32">
         <v>62.195900000000009</v>
       </c>
-      <c r="O109" s="34">
+      <c r="O109" s="33">
         <v>-0.18240143662906055</v>
       </c>
-      <c r="P109" s="35">
+      <c r="P109" s="34">
         <v>5.1810137446148291E-2</v>
       </c>
-      <c r="Q109" s="27">
+      <c r="Q109" s="26">
         <v>260700</v>
       </c>
-      <c r="R109" s="28">
+      <c r="R109" s="27">
         <v>141787.5</v>
       </c>
-      <c r="S109" s="28">
+      <c r="S109" s="27">
         <v>193600</v>
       </c>
-      <c r="T109" s="34">
+      <c r="T109" s="33">
         <v>-0.4561277330264672</v>
       </c>
-      <c r="U109" s="35">
+      <c r="U109" s="34">
         <v>0.3654236092744424</v>
       </c>
-      <c r="V109" s="38">
+      <c r="V109" s="37">
         <v>3407.5357705105594</v>
       </c>
-      <c r="W109" s="39">
+      <c r="W109" s="38">
         <v>2471.3406849871772</v>
       </c>
-      <c r="X109" s="39">
+      <c r="X109" s="38">
         <v>3102.4201559617586</v>
       </c>
-      <c r="Y109" s="34">
+      <c r="Y109" s="33">
         <v>-0.27474255549285398</v>
       </c>
-      <c r="Z109" s="35">
+      <c r="Z109" s="34">
         <v>0.25535915578464891</v>
       </c>
     </row>
@@ -8758,13 +8758,13 @@
       <c r="U110" s="8">
         <v>0</v>
       </c>
-      <c r="V110" s="15">
+      <c r="V110" s="14">
         <v>2526.7470438509213</v>
       </c>
-      <c r="W110" s="15">
+      <c r="W110" s="14">
         <v>2518.4255082496875</v>
       </c>
-      <c r="X110" s="15">
+      <c r="X110" s="14">
         <v>2518.4255082496875</v>
       </c>
       <c r="Y110" s="8">
@@ -8775,10 +8775,10 @@
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="19">
+      <c r="B111" s="18">
         <v>5</v>
       </c>
       <c r="C111" s="10">
@@ -8790,67 +8790,67 @@
       <c r="E111" s="10">
         <v>0</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="19">
         <v>-2</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G111" s="26">
         <v>53</v>
       </c>
-      <c r="H111" s="28">
+      <c r="H111" s="27">
         <v>19</v>
       </c>
-      <c r="I111" s="28">
+      <c r="I111" s="27">
         <v>15</v>
       </c>
       <c r="J111" s="10">
         <v>-34</v>
       </c>
-      <c r="K111" s="20">
+      <c r="K111" s="19">
         <v>-4</v>
       </c>
-      <c r="L111" s="32">
+      <c r="L111" s="31">
         <v>68.003113882038335</v>
       </c>
-      <c r="M111" s="33">
+      <c r="M111" s="32">
         <v>68.070521904856335</v>
       </c>
-      <c r="N111" s="33">
+      <c r="N111" s="32">
         <v>70.689327746151349</v>
       </c>
-      <c r="O111" s="34">
+      <c r="O111" s="33">
         <v>9.9124906154929434E-4</v>
       </c>
-      <c r="P111" s="35">
+      <c r="P111" s="34">
         <v>3.8471951852453501E-2</v>
       </c>
-      <c r="Q111" s="27">
+      <c r="Q111" s="26">
         <v>80460.226415094337</v>
       </c>
-      <c r="R111" s="28">
+      <c r="R111" s="27">
         <v>121161.89473684211</v>
       </c>
-      <c r="S111" s="28">
+      <c r="S111" s="27">
         <v>138811.73333333334</v>
       </c>
-      <c r="T111" s="34">
+      <c r="T111" s="33">
         <v>0.50586072318225717</v>
       </c>
-      <c r="U111" s="35">
+      <c r="U111" s="34">
         <v>0.14567153010297373</v>
       </c>
-      <c r="V111" s="38">
+      <c r="V111" s="37">
         <v>1152.8471322828434</v>
       </c>
-      <c r="W111" s="39">
+      <c r="W111" s="38">
         <v>1745.5316574509968</v>
       </c>
-      <c r="X111" s="39">
+      <c r="X111" s="38">
         <v>1960.5781893321744</v>
       </c>
-      <c r="Y111" s="34">
+      <c r="Y111" s="33">
         <v>0.51410504356681885</v>
       </c>
-      <c r="Z111" s="35">
+      <c r="Z111" s="34">
         <v>0.12319829947696875</v>
       </c>
     </row>
@@ -8918,13 +8918,13 @@
       <c r="U112" s="8">
         <v>-0.32397998980769832</v>
       </c>
-      <c r="V112" s="15">
+      <c r="V112" s="14">
         <v>1168.1711319812</v>
       </c>
-      <c r="W112" s="15">
+      <c r="W112" s="14">
         <v>1252.1525290045174</v>
       </c>
-      <c r="X112" s="15">
+      <c r="X112" s="14">
         <v>613.31025135024288</v>
       </c>
       <c r="Y112" s="8">
@@ -8935,10 +8935,10 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10">
         <v>1</v>
@@ -8946,41 +8946,41 @@
       <c r="E113" s="10">
         <v>0</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="19">
         <v>1</v>
       </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28">
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27">
         <v>15</v>
       </c>
       <c r="J113" s="10">
         <v>0</v>
       </c>
-      <c r="K113" s="20">
+      <c r="K113" s="19">
         <v>15</v>
       </c>
-      <c r="L113" s="32"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33">
+      <c r="L113" s="31"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32">
         <v>69.928000000000011</v>
       </c>
-      <c r="O113" s="34"/>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="28"/>
-      <c r="S113" s="28">
+      <c r="O113" s="33"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27">
         <v>285359.06666666665</v>
       </c>
-      <c r="T113" s="34"/>
-      <c r="U113" s="35"/>
-      <c r="V113" s="38"/>
-      <c r="W113" s="39"/>
-      <c r="X113" s="39">
+      <c r="T113" s="33"/>
+      <c r="U113" s="34"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="38">
         <v>4067.8601547988505</v>
       </c>
-      <c r="Y113" s="34"/>
-      <c r="Z113" s="35"/>
+      <c r="Y113" s="33"/>
+      <c r="Z113" s="34"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
@@ -9023,13 +9023,13 @@
         <v>35.833333333333336</v>
       </c>
       <c r="N114" s="7">
-        <v>35.833333333333336</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="O114" s="8">
         <v>-0.38455020639037257</v>
       </c>
       <c r="P114" s="8">
-        <v>0</v>
+        <v>2.7906976744186046E-2</v>
       </c>
       <c r="Q114" s="9">
         <v>43900</v>
@@ -9046,27 +9046,27 @@
       <c r="U114" s="8">
         <v>0</v>
       </c>
-      <c r="V114" s="15">
+      <c r="V114" s="14">
         <v>754.31081485016534</v>
       </c>
-      <c r="W114" s="15">
+      <c r="W114" s="14">
         <v>1263.9248513611842</v>
       </c>
-      <c r="X114" s="15">
-        <v>1263.9248513611842</v>
+      <c r="X114" s="14">
+        <v>1225.7784099889363</v>
       </c>
       <c r="Y114" s="8">
         <v>0.67560218742488465</v>
       </c>
       <c r="Z114" s="8">
-        <v>0</v>
+        <v>-3.0180941003862725E-2</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="19">
+      <c r="B115" s="18">
         <v>4</v>
       </c>
       <c r="C115" s="10">
@@ -9078,68 +9078,68 @@
       <c r="E115" s="10">
         <v>0</v>
       </c>
-      <c r="F115" s="20">
+      <c r="F115" s="19">
         <v>-1</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G115" s="26">
         <v>36</v>
       </c>
-      <c r="H115" s="28">
+      <c r="H115" s="27">
         <v>51</v>
       </c>
-      <c r="I115" s="28">
+      <c r="I115" s="27">
         <v>58</v>
       </c>
       <c r="J115" s="10">
         <v>15</v>
       </c>
-      <c r="K115" s="20">
+      <c r="K115" s="19">
         <v>7</v>
       </c>
-      <c r="L115" s="32">
+      <c r="L115" s="31">
         <v>87.040380380380356</v>
       </c>
-      <c r="M115" s="33">
+      <c r="M115" s="32">
         <v>106.02860129627759</v>
       </c>
-      <c r="N115" s="33">
-        <v>67.649812216743243</v>
-      </c>
-      <c r="O115" s="34">
+      <c r="N115" s="32">
+        <v>67.876404098984622</v>
+      </c>
+      <c r="O115" s="33">
         <v>0.21815415825293585</v>
       </c>
-      <c r="P115" s="35">
-        <v>-0.36196638086634586</v>
-      </c>
-      <c r="Q115" s="27">
+      <c r="P115" s="34">
+        <v>-0.35982929823513948</v>
+      </c>
+      <c r="Q115" s="26">
         <v>192491.66666666666</v>
       </c>
-      <c r="R115" s="28">
+      <c r="R115" s="27">
         <v>214568.62745098039</v>
       </c>
-      <c r="S115" s="28">
+      <c r="S115" s="27">
         <v>95775.862068965522</v>
       </c>
-      <c r="T115" s="34">
+      <c r="T115" s="33">
         <v>0.11469047552351393</v>
       </c>
-      <c r="U115" s="35">
+      <c r="U115" s="34">
         <v>-0.55363529511859255</v>
       </c>
-      <c r="V115" s="38">
+      <c r="V115" s="37">
         <v>1805.2539228561536</v>
       </c>
-      <c r="W115" s="39">
+      <c r="W115" s="38">
         <v>1849.0242228195159</v>
       </c>
-      <c r="X115" s="39">
-        <v>1411.8382745236231</v>
-      </c>
-      <c r="Y115" s="34">
+      <c r="X115" s="38">
+        <v>1402.3950660976943</v>
+      </c>
+      <c r="Y115" s="33">
         <v>2.4246062788835711E-2</v>
       </c>
-      <c r="Z115" s="35">
-        <v>-0.23644143916581167</v>
+      <c r="Z115" s="34">
+        <v>-0.2415485698942178</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
@@ -9206,13 +9206,13 @@
       <c r="U116" s="8">
         <v>5.4368379896211653E-3</v>
       </c>
-      <c r="V116" s="15">
+      <c r="V116" s="14">
         <v>2959.0545596255042</v>
       </c>
-      <c r="W116" s="15">
+      <c r="W116" s="14">
         <v>2895.4932493406004</v>
       </c>
-      <c r="X116" s="15">
+      <c r="X116" s="14">
         <v>3208.3025597189753</v>
       </c>
       <c r="Y116" s="8">
@@ -9223,10 +9223,10 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B117" s="18">
         <v>6</v>
       </c>
       <c r="C117" s="10">
@@ -9238,67 +9238,67 @@
       <c r="E117" s="10">
         <v>-3</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="19">
         <v>-1</v>
       </c>
-      <c r="G117" s="27">
+      <c r="G117" s="26">
         <v>38</v>
       </c>
-      <c r="H117" s="28">
+      <c r="H117" s="27">
         <v>31</v>
       </c>
-      <c r="I117" s="28">
+      <c r="I117" s="27">
         <v>6</v>
       </c>
       <c r="J117" s="10">
         <v>-7</v>
       </c>
-      <c r="K117" s="20">
+      <c r="K117" s="19">
         <v>-25</v>
       </c>
-      <c r="L117" s="32">
+      <c r="L117" s="31">
         <v>107.62148022378784</v>
       </c>
-      <c r="M117" s="33">
+      <c r="M117" s="32">
         <v>112.81165938531878</v>
       </c>
-      <c r="N117" s="33">
+      <c r="N117" s="32">
         <v>159.42855427499998</v>
       </c>
-      <c r="O117" s="34">
+      <c r="O117" s="33">
         <v>4.8226238393473952E-2</v>
       </c>
-      <c r="P117" s="35">
+      <c r="P117" s="34">
         <v>0.41322763217635899</v>
       </c>
-      <c r="Q117" s="27">
+      <c r="Q117" s="26">
         <v>322330.89473684208</v>
       </c>
-      <c r="R117" s="28">
+      <c r="R117" s="27">
         <v>362274.19354838709</v>
       </c>
-      <c r="S117" s="28">
+      <c r="S117" s="27">
         <v>668333.33333333337</v>
       </c>
-      <c r="T117" s="34">
+      <c r="T117" s="33">
         <v>0.12392016857135456</v>
       </c>
-      <c r="U117" s="35">
+      <c r="U117" s="34">
         <v>0.84482733033554469</v>
       </c>
-      <c r="V117" s="38">
+      <c r="V117" s="37">
         <v>3014.0286494222928</v>
       </c>
-      <c r="W117" s="39">
+      <c r="W117" s="38">
         <v>3142.6231903945827</v>
       </c>
-      <c r="X117" s="39">
+      <c r="X117" s="38">
         <v>4102.7054821988959</v>
       </c>
-      <c r="Y117" s="34">
+      <c r="Y117" s="33">
         <v>4.2665334650000088E-2</v>
       </c>
-      <c r="Z117" s="35">
+      <c r="Z117" s="34">
         <v>0.30550347071160217</v>
       </c>
     </row>
@@ -9366,13 +9366,13 @@
       <c r="U118" s="8">
         <v>-2.3799834150303231E-2</v>
       </c>
-      <c r="V118" s="15">
+      <c r="V118" s="14">
         <v>3854.2168732577511</v>
       </c>
-      <c r="W118" s="15">
+      <c r="W118" s="14">
         <v>4073.5773756719768</v>
       </c>
-      <c r="X118" s="15">
+      <c r="X118" s="14">
         <v>3912.4920678092722</v>
       </c>
       <c r="Y118" s="8">
@@ -9383,10 +9383,10 @@
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="18">
         <v>11</v>
       </c>
       <c r="C119" s="10">
@@ -9398,67 +9398,67 @@
       <c r="E119" s="10">
         <v>1</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="19">
         <v>-2</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G119" s="26">
         <v>62</v>
       </c>
-      <c r="H119" s="28">
+      <c r="H119" s="27">
         <v>90</v>
       </c>
-      <c r="I119" s="28">
+      <c r="I119" s="27">
         <v>79</v>
       </c>
       <c r="J119" s="10">
         <v>28</v>
       </c>
-      <c r="K119" s="20">
+      <c r="K119" s="19">
         <v>-11</v>
       </c>
-      <c r="L119" s="32">
+      <c r="L119" s="31">
         <v>84.094091050321666</v>
       </c>
-      <c r="M119" s="33">
+      <c r="M119" s="32">
         <v>89.080030614364048</v>
       </c>
-      <c r="N119" s="33">
+      <c r="N119" s="32">
         <v>89.802819687250206</v>
       </c>
-      <c r="O119" s="34">
+      <c r="O119" s="33">
         <v>5.9290010769708072E-2</v>
       </c>
-      <c r="P119" s="35">
+      <c r="P119" s="34">
         <v>8.113929327384058E-3</v>
       </c>
-      <c r="Q119" s="27">
+      <c r="Q119" s="26">
         <v>243044.19354838709</v>
       </c>
-      <c r="R119" s="28">
+      <c r="R119" s="27">
         <v>274621.22222222225</v>
       </c>
-      <c r="S119" s="28">
+      <c r="S119" s="27">
         <v>278530.50632911391</v>
       </c>
-      <c r="T119" s="34">
+      <c r="T119" s="33">
         <v>0.1299229914231568</v>
       </c>
-      <c r="U119" s="35">
+      <c r="U119" s="34">
         <v>1.4235185741502111E-2</v>
       </c>
-      <c r="V119" s="38">
+      <c r="V119" s="37">
         <v>2903.0047075881675</v>
       </c>
-      <c r="W119" s="39">
+      <c r="W119" s="38">
         <v>3110.3590951321976</v>
       </c>
-      <c r="X119" s="39">
+      <c r="X119" s="38">
         <v>3131.7807666216208</v>
       </c>
-      <c r="Y119" s="34">
+      <c r="Y119" s="33">
         <v>7.1427506473560359E-2</v>
       </c>
-      <c r="Z119" s="35">
+      <c r="Z119" s="34">
         <v>6.8872020349511412E-3</v>
       </c>
     </row>
@@ -9502,19 +9502,19 @@
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-      <c r="V120" s="15"/>
-      <c r="W120" s="15"/>
-      <c r="X120" s="15">
+      <c r="V120" s="14"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="14">
         <v>2293.0066879546353</v>
       </c>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B121" s="19">
+      <c r="B121" s="18">
         <v>27</v>
       </c>
       <c r="C121" s="10">
@@ -9526,67 +9526,67 @@
       <c r="E121" s="10">
         <v>0</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="19">
         <v>-4</v>
       </c>
-      <c r="G121" s="27">
+      <c r="G121" s="26">
         <v>113</v>
       </c>
-      <c r="H121" s="28">
+      <c r="H121" s="27">
         <v>218</v>
       </c>
-      <c r="I121" s="28">
+      <c r="I121" s="27">
         <v>213</v>
       </c>
       <c r="J121" s="10">
         <v>105</v>
       </c>
-      <c r="K121" s="20">
+      <c r="K121" s="19">
         <v>-5</v>
       </c>
-      <c r="L121" s="32">
+      <c r="L121" s="31">
         <v>82.736687548715878</v>
       </c>
-      <c r="M121" s="33">
+      <c r="M121" s="32">
         <v>75.758438768459882</v>
       </c>
-      <c r="N121" s="33">
+      <c r="N121" s="32">
         <v>75.667463152696044</v>
       </c>
-      <c r="O121" s="34">
+      <c r="O121" s="33">
         <v>-8.4342859099201417E-2</v>
       </c>
-      <c r="P121" s="35">
+      <c r="P121" s="34">
         <v>-1.2008644481426905E-3</v>
       </c>
-      <c r="Q121" s="27">
+      <c r="Q121" s="26">
         <v>294785.39823008847</v>
       </c>
-      <c r="R121" s="28">
+      <c r="R121" s="27">
         <v>291436.54128440365</v>
       </c>
-      <c r="S121" s="28">
+      <c r="S121" s="27">
         <v>290935.05164319248</v>
       </c>
-      <c r="T121" s="34">
+      <c r="T121" s="33">
         <v>-1.1360321663798764E-2</v>
       </c>
-      <c r="U121" s="35">
+      <c r="U121" s="34">
         <v>-1.7207507301624969E-3</v>
       </c>
-      <c r="V121" s="38">
+      <c r="V121" s="37">
         <v>3629.265431448101</v>
       </c>
-      <c r="W121" s="39">
+      <c r="W121" s="38">
         <v>3907.3078306889115</v>
       </c>
-      <c r="X121" s="39">
+      <c r="X121" s="38">
         <v>3902.8642151895046</v>
       </c>
-      <c r="Y121" s="34">
+      <c r="Y121" s="33">
         <v>7.6611205350684344E-2</v>
       </c>
-      <c r="Z121" s="35">
+      <c r="Z121" s="34">
         <v>-1.1372575931964362E-3</v>
       </c>
     </row>
@@ -9654,13 +9654,13 @@
       <c r="U122" s="8">
         <v>7.2231833910034859E-3</v>
       </c>
-      <c r="V122" s="15">
+      <c r="V122" s="14">
         <v>2408.3216329237202</v>
       </c>
-      <c r="W122" s="15">
+      <c r="W122" s="14">
         <v>2552.6539397982747</v>
       </c>
-      <c r="X122" s="15">
+      <c r="X122" s="14">
         <v>2600.8215121100502</v>
       </c>
       <c r="Y122" s="8">
@@ -9671,10 +9671,10 @@
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10">
         <v>3</v>
@@ -9682,41 +9682,41 @@
       <c r="E123" s="10">
         <v>0</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="19">
         <v>3</v>
       </c>
-      <c r="G123" s="27"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28">
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27">
         <v>53</v>
       </c>
       <c r="J123" s="10">
         <v>0</v>
       </c>
-      <c r="K123" s="20">
+      <c r="K123" s="19">
         <v>53</v>
       </c>
-      <c r="L123" s="32"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33">
+      <c r="L123" s="31"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32">
         <v>83.250376603301859</v>
       </c>
-      <c r="O123" s="34"/>
-      <c r="P123" s="35"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="28"/>
-      <c r="S123" s="28">
+      <c r="O123" s="33"/>
+      <c r="P123" s="34"/>
+      <c r="Q123" s="26"/>
+      <c r="R123" s="27"/>
+      <c r="S123" s="27">
         <v>446320.75471698114</v>
       </c>
-      <c r="T123" s="34"/>
-      <c r="U123" s="35"/>
-      <c r="V123" s="38"/>
-      <c r="W123" s="39"/>
-      <c r="X123" s="39">
+      <c r="T123" s="33"/>
+      <c r="U123" s="34"/>
+      <c r="V123" s="37"/>
+      <c r="W123" s="38"/>
+      <c r="X123" s="38">
         <v>5576.480452239256</v>
       </c>
-      <c r="Y123" s="34"/>
-      <c r="Z123" s="35"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="34"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -9759,13 +9759,13 @@
         <v>80.705198103839038</v>
       </c>
       <c r="N124" s="12">
-        <v>80.264731227001207</v>
+        <v>80.300179129440167</v>
       </c>
       <c r="O124" s="13">
         <v>-4.8702973635888359E-2</v>
       </c>
       <c r="P124" s="13">
-        <v>-5.4577262330873216E-3</v>
+        <v>-5.0184992282375036E-3</v>
       </c>
       <c r="Q124" s="11">
         <v>376208.01191611058</v>
@@ -9774,13 +9774,13 @@
         <v>368808.68292384793</v>
       </c>
       <c r="S124" s="11">
-        <v>364601.99976597237</v>
+        <v>364461.5831968172</v>
       </c>
       <c r="T124" s="13">
         <v>-1.9668185572593838E-2</v>
       </c>
       <c r="U124" s="13">
-        <v>-1.1406139151946574E-2</v>
+        <v>-1.1786869258521014E-2</v>
       </c>
       <c r="V124" s="12">
         <v>4421.6284918878673</v>
@@ -9789,13 +9789,13 @@
         <v>4532.5849389259138</v>
       </c>
       <c r="X124" s="12">
-        <v>4502.9296687407395</v>
+        <v>4495.8272342228411</v>
       </c>
       <c r="Y124" s="13">
         <v>2.5094022992119873E-2</v>
       </c>
       <c r="Z124" s="13">
-        <v>-6.542683829373893E-3</v>
+        <v>-8.1096560127085389E-3</v>
       </c>
     </row>
   </sheetData>
@@ -9815,8 +9815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B2AAFE-0F12-45BB-B3AC-3508B8C0FC63}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9826,128 +9826,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="45" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="45" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="45" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="47"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>2021</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>2022</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>2023</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>2021</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>2022</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>2023</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="39">
         <v>2021</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <v>2022</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="39">
         <v>2023</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>2021</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="39">
         <v>2022</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="39">
         <v>2023</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="39">
         <v>2021</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="39">
         <v>2022</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="39">
         <v>2023</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>752</v>
       </c>
       <c r="C3" s="10">
@@ -9959,72 +9959,72 @@
       <c r="E3" s="10">
         <v>-22</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>-6</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>4878</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>6190</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>6693</v>
       </c>
       <c r="J3" s="10">
         <v>1312</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>503</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>84.256285302605676</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="29">
         <v>79.616687404593108</v>
       </c>
-      <c r="N3" s="30">
-        <v>79.320061929860685</v>
-      </c>
-      <c r="O3" s="31">
+      <c r="N3" s="29">
+        <v>79.352559493380454</v>
+      </c>
+      <c r="O3" s="30">
         <v>-5.506530321565322E-2</v>
       </c>
-      <c r="P3" s="31">
-        <v>-3.7256696353748378E-3</v>
-      </c>
-      <c r="Q3" s="25">
+      <c r="P3" s="30">
+        <v>-3.3174943573125396E-3</v>
+      </c>
+      <c r="Q3" s="24">
         <v>412634.83620336204</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <v>389716.06025848142</v>
       </c>
-      <c r="S3" s="26">
-        <v>383687.91633049457</v>
-      </c>
-      <c r="T3" s="31">
+      <c r="S3" s="25">
+        <v>383508.62453309429</v>
+      </c>
+      <c r="T3" s="30">
         <v>-5.5542513462400391E-2</v>
       </c>
-      <c r="U3" s="31">
-        <v>-1.5468040819227848E-2</v>
-      </c>
-      <c r="V3" s="36">
+      <c r="U3" s="30">
+        <v>-1.5928098321814119E-2</v>
+      </c>
+      <c r="V3" s="35">
         <v>4873.2021943343952</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="36">
         <v>4796.2936810881974</v>
       </c>
-      <c r="X3" s="37">
-        <v>4764.5224637894798</v>
-      </c>
-      <c r="Y3" s="31">
+      <c r="X3" s="36">
+        <v>4756.6236503099381</v>
+      </c>
+      <c r="Y3" s="30">
         <v>-1.5781925349949967E-2</v>
       </c>
-      <c r="Z3" s="31">
-        <v>-6.6241184154322372E-3</v>
+      <c r="Z3" s="30">
+        <v>-8.2709761778513389E-3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="9">
@@ -10064,13 +10064,13 @@
         <v>82.487754899797025</v>
       </c>
       <c r="N4" s="7">
-        <v>84.098981882063569</v>
+        <v>84.132082241291656</v>
       </c>
       <c r="O4" s="8">
         <v>-4.8007023291338005E-2</v>
       </c>
       <c r="P4" s="8">
-        <v>1.953292321052744E-2</v>
+        <v>1.9934199245598288E-2</v>
       </c>
       <c r="Q4" s="9">
         <v>321593.85741088178</v>
@@ -10087,27 +10087,27 @@
       <c r="U4" s="8">
         <v>-6.2706026967542045E-2</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="14">
         <v>3721.6092259513775</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>4684.1223625942303</v>
       </c>
-      <c r="X4" s="15">
-        <v>4250.5706952280934</v>
+      <c r="X4" s="14">
+        <v>4245.3881153513439</v>
       </c>
       <c r="Y4" s="8">
         <v>0.25862821113272572</v>
       </c>
       <c r="Z4" s="8">
-        <v>-9.2557716004246476E-2</v>
+        <v>-9.3664130285422351E-2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>48</v>
       </c>
       <c r="C5" s="10">
@@ -10119,10 +10119,10 @@
       <c r="E5" s="10">
         <v>-16</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>-8</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>264</v>
       </c>
       <c r="H5" s="10">
@@ -10134,25 +10134,25 @@
       <c r="J5" s="10">
         <v>53</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>-101</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>87.139089593127807</v>
       </c>
       <c r="M5" s="1">
         <v>86.495131205110866</v>
       </c>
       <c r="N5" s="1">
-        <v>87.065669212411279</v>
+        <v>87.226830373572383</v>
       </c>
       <c r="O5" s="3">
         <v>-7.3900059206921803E-3</v>
       </c>
-      <c r="P5" s="22">
-        <v>6.5961863905086649E-3</v>
-      </c>
-      <c r="Q5" s="19">
+      <c r="P5" s="21">
+        <v>8.459426077132565E-3</v>
+      </c>
+      <c r="Q5" s="18">
         <v>195663.49242424243</v>
       </c>
       <c r="R5" s="10">
@@ -10164,27 +10164,27 @@
       <c r="T5" s="3">
         <v>7.4796927618757808E-2</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <v>-2.5701569241861275E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="22">
         <v>2180.9653934510275</v>
       </c>
       <c r="W5" s="2">
         <v>2351.1930852594132</v>
       </c>
       <c r="X5" s="2">
-        <v>2235.2977826360411</v>
+        <v>2225.4578355460935</v>
       </c>
       <c r="Y5" s="3">
         <v>7.8051532738457524E-2</v>
       </c>
-      <c r="Z5" s="22">
-        <v>-4.9292124645128874E-2</v>
+      <c r="Z5" s="21">
+        <v>-5.3477211421556654E-2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9">
@@ -10224,13 +10224,13 @@
         <v>85.26011379978668</v>
       </c>
       <c r="N6" s="7">
-        <v>82.024638847915583</v>
+        <v>82.052543117842632</v>
       </c>
       <c r="O6" s="8">
         <v>-1.8562502205262309E-2</v>
       </c>
       <c r="P6" s="8">
-        <v>-3.7948283290693809E-2</v>
+        <v>-3.7620999304273435E-2</v>
       </c>
       <c r="Q6" s="9">
         <v>213175.78029079159</v>
@@ -10247,20 +10247,20 @@
       <c r="U6" s="8">
         <v>5.5939060825204124E-3</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <v>2421.4165471338893</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <v>2957.9236001769555</v>
       </c>
-      <c r="X6" s="15">
-        <v>3014.5350535043817</v>
+      <c r="X6" s="14">
+        <v>3013.4030057828954</v>
       </c>
       <c r="Y6" s="8">
         <v>0.22156743484639313</v>
       </c>
       <c r="Z6" s="8">
-        <v>1.913891667926769E-2</v>
+        <v>1.8756199653912956E-2</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -10304,13 +10304,13 @@
         <v>80.705198103837688</v>
       </c>
       <c r="N7" s="12">
-        <v>80.26473122700024</v>
+        <v>80.300179129439357</v>
       </c>
       <c r="O7" s="13">
         <v>-4.8702973635900815E-2</v>
       </c>
       <c r="P7" s="13">
-        <v>-5.4577262330826048E-3</v>
+        <v>-5.0184992282309437E-3</v>
       </c>
       <c r="Q7" s="11">
         <v>376208.01191611058</v>
@@ -10319,13 +10319,13 @@
         <v>368808.68292384793</v>
       </c>
       <c r="S7" s="11">
-        <v>364601.99976597237</v>
+        <v>364461.5831968172</v>
       </c>
       <c r="T7" s="13">
         <v>-1.9668185572593866E-2</v>
       </c>
       <c r="U7" s="13">
-        <v>-1.1406139151946548E-2</v>
+        <v>-1.1786869258521016E-2</v>
       </c>
       <c r="V7" s="12">
         <v>4421.6284918878555</v>
@@ -10334,13 +10334,13 @@
         <v>4532.5849389259392</v>
       </c>
       <c r="X7" s="12">
-        <v>4502.9296687407241</v>
+        <v>4495.827234222862</v>
       </c>
       <c r="Y7" s="13">
         <v>2.5094022992128373E-2</v>
       </c>
-      <c r="Z7" s="14">
-        <v>-6.5426838293828338E-3</v>
+      <c r="Z7" s="13">
+        <v>-8.1096560127095207E-3</v>
       </c>
     </row>
   </sheetData>
